--- a/computed_files/1_3_krypton/mie_results_vle_fluid.xlsx
+++ b/computed_files/1_3_krypton/mie_results_vle_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8252229353374877</v>
       </c>
       <c r="D2">
-        <v>216.7264027260261</v>
+        <v>216.7264027260252</v>
       </c>
       <c r="E2">
-        <v>6923382.881251127</v>
+        <v>6923382.881250996</v>
       </c>
       <c r="F2">
-        <v>11312.53465269142</v>
+        <v>11312.5346526913</v>
       </c>
       <c r="G2">
         <v>3.668624871237705</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>69.13957864492333</v>
       </c>
@@ -585,77 +597,89 @@
         <v>0.0963406567908722</v>
       </c>
       <c r="M2">
+        <v>0.0963406567908722</v>
+      </c>
+      <c r="N2">
         <v>1040.584231240957</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>70.63033275418672</v>
       </c>
       <c r="B3">
-        <v>59.36942907141879</v>
+        <v>59.36942907141855</v>
       </c>
       <c r="C3">
-        <v>0.1011035532491269</v>
+        <v>0.1011035532491265</v>
       </c>
       <c r="D3">
         <v>35124.42853580218</v>
       </c>
       <c r="E3">
-        <v>12404.86598289073</v>
+        <v>12404.86598289074</v>
       </c>
       <c r="F3">
         <v>11817.65360239448</v>
       </c>
       <c r="G3">
-        <v>46.53235824507988</v>
+        <v>46.53235824507985</v>
       </c>
       <c r="H3">
         <v>147.9743039612097</v>
       </c>
       <c r="I3">
-        <v>9.978165148011059E-10</v>
+        <v>9.978165148011068E-10</v>
       </c>
       <c r="J3">
-        <v>4.147634054002129E-10</v>
+        <v>4.147634054002133E-10</v>
       </c>
       <c r="K3">
-        <v>0.001746883158128809</v>
+        <v>0.001746883158128808</v>
       </c>
       <c r="L3">
-        <v>0.09562786402966941</v>
+        <v>0.0956278640296694</v>
       </c>
       <c r="M3">
-        <v>986.8420063876772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.0956278640296694</v>
+      </c>
+      <c r="N3">
+        <v>986.842006387677</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>72.12108686345012</v>
+        <v>72.12108686345009</v>
       </c>
       <c r="B4">
-        <v>91.52778326436955</v>
+        <v>91.52778326436912</v>
       </c>
       <c r="C4">
-        <v>0.1526506501001021</v>
+        <v>0.1526506501001014</v>
       </c>
       <c r="D4">
         <v>34748.86196649887</v>
       </c>
       <c r="E4">
-        <v>12189.06710306614</v>
+        <v>12189.06710306615</v>
       </c>
       <c r="F4">
-        <v>11589.47986825412</v>
+        <v>11589.47986825413</v>
       </c>
       <c r="G4">
-        <v>48.39197194812043</v>
+        <v>48.39197194812034</v>
       </c>
       <c r="H4">
-        <v>141.3662285899189</v>
+        <v>141.3662285899188</v>
       </c>
       <c r="I4">
-        <v>1.01746528766346E-09</v>
+        <v>1.017465287663461E-09</v>
       </c>
       <c r="J4">
         <v>4.276664453329175E-10</v>
@@ -664,42 +688,48 @@
         <v>0.001753206215263471</v>
       </c>
       <c r="L4">
-        <v>0.09502192990808631</v>
+        <v>0.09502192990808628</v>
       </c>
       <c r="M4">
+        <v>0.09502192990808628</v>
+      </c>
+      <c r="N4">
         <v>948.2780473160535</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>73.61184097271351</v>
+        <v>73.61184097271348</v>
       </c>
       <c r="B5">
-        <v>137.6713011547033</v>
+        <v>137.671301154701</v>
       </c>
       <c r="C5">
-        <v>0.2249683767371293</v>
+        <v>0.2249683767371256</v>
       </c>
       <c r="D5">
-        <v>34393.77174471186</v>
+        <v>34393.77174471187</v>
       </c>
       <c r="E5">
-        <v>11983.50090179069</v>
+        <v>11983.5009017907</v>
       </c>
       <c r="F5">
-        <v>11371.54644557469</v>
+        <v>11371.5464455747</v>
       </c>
       <c r="G5">
-        <v>48.8883190202293</v>
+        <v>48.88831902022937</v>
       </c>
       <c r="H5">
-        <v>134.2629830058113</v>
+        <v>134.2629830058116</v>
       </c>
       <c r="I5">
-        <v>1.036955930798827E-09</v>
+        <v>1.036955930798825E-09</v>
       </c>
       <c r="J5">
-        <v>4.411476142521897E-10</v>
+        <v>4.411476142521892E-10</v>
       </c>
       <c r="K5">
         <v>0.001752524336552472</v>
@@ -708,18 +738,24 @@
         <v>0.0945159545457066</v>
       </c>
       <c r="M5">
-        <v>919.5070849561895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.0945159545457066</v>
+      </c>
+      <c r="N5">
+        <v>919.5070849561903</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>75.10259508197689</v>
+        <v>75.10259508197686</v>
       </c>
       <c r="B6">
-        <v>202.4337909421391</v>
+        <v>202.4337909421387</v>
       </c>
       <c r="C6">
-        <v>0.3242479574248047</v>
+        <v>0.3242479574248042</v>
       </c>
       <c r="D6">
         <v>34057.43175823378</v>
@@ -728,83 +764,95 @@
         <v>11788.71918127293</v>
       </c>
       <c r="F6">
-        <v>11164.40726500295</v>
+        <v>11164.40726500294</v>
       </c>
       <c r="G6">
-        <v>48.35298771382426</v>
+        <v>48.35298771382454</v>
       </c>
       <c r="H6">
-        <v>126.8998527516273</v>
+        <v>126.8998527516276</v>
       </c>
       <c r="I6">
-        <v>1.056354777475084E-09</v>
+        <v>1.056354777475083E-09</v>
       </c>
       <c r="J6">
-        <v>4.552643199008922E-10</v>
+        <v>4.552643199008921E-10</v>
       </c>
       <c r="K6">
-        <v>0.001744494579582417</v>
+        <v>0.001744494579582416</v>
       </c>
       <c r="L6">
-        <v>0.09410325055265013</v>
+        <v>0.09410325055265016</v>
       </c>
       <c r="M6">
-        <v>897.4330941735195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.09410325055265016</v>
+      </c>
+      <c r="N6">
+        <v>897.4330941735187</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>76.59334919124028</v>
+        <v>76.59334919124025</v>
       </c>
       <c r="B7">
-        <v>291.5088662015683</v>
+        <v>291.5088662015664</v>
       </c>
       <c r="C7">
-        <v>0.4578679841843803</v>
+        <v>0.4578679841843777</v>
       </c>
       <c r="D7">
-        <v>33738.27459648465</v>
+        <v>33738.27459648467</v>
       </c>
       <c r="E7">
         <v>11604.95644901029</v>
       </c>
       <c r="F7">
-        <v>10968.29933344064</v>
+        <v>10968.29933344065</v>
       </c>
       <c r="G7">
-        <v>47.06075819596926</v>
+        <v>47.06075819596931</v>
       </c>
       <c r="H7">
-        <v>119.4668430600282</v>
+        <v>119.4668430600285</v>
       </c>
       <c r="I7">
-        <v>1.075728504350307E-09</v>
+        <v>1.075728504350305E-09</v>
       </c>
       <c r="J7">
-        <v>4.700774272179017E-10</v>
+        <v>4.700774272179012E-10</v>
       </c>
       <c r="K7">
-        <v>0.001728855680010401</v>
+        <v>0.001728855680010402</v>
       </c>
       <c r="L7">
-        <v>0.09377703203456521</v>
+        <v>0.09377703203456525</v>
       </c>
       <c r="M7">
-        <v>880.1356127562348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.09377703203456525</v>
+      </c>
+      <c r="N7">
+        <v>880.135612756236</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>78.08410330050367</v>
+        <v>78.08410330050361</v>
       </c>
       <c r="B8">
-        <v>411.778924919542</v>
+        <v>411.7789249195401</v>
       </c>
       <c r="C8">
-        <v>0.6344826750933341</v>
+        <v>0.6344826750933318</v>
       </c>
       <c r="D8">
-        <v>33434.87483853834</v>
+        <v>33434.87483853835</v>
       </c>
       <c r="E8">
         <v>11432.19403806621</v>
@@ -816,36 +864,42 @@
         <v>45.23566207513464</v>
       </c>
       <c r="H8">
-        <v>112.1132946900255</v>
+        <v>112.1132946900256</v>
       </c>
       <c r="I8">
-        <v>1.095143679685061E-09</v>
+        <v>1.095143679685059E-09</v>
       </c>
       <c r="J8">
-        <v>4.856513921734529E-10</v>
+        <v>4.856513921734518E-10</v>
       </c>
       <c r="K8">
-        <v>0.001705446813420959</v>
+        <v>0.00170544681342096</v>
       </c>
       <c r="L8">
-        <v>0.09353016411590979</v>
+        <v>0.09353016411590982</v>
       </c>
       <c r="M8">
-        <v>866.3507932503539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.09353016411590982</v>
+      </c>
+      <c r="N8">
+        <v>866.3507932503551</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>79.57485740976706</v>
+        <v>79.57485740976701</v>
       </c>
       <c r="B9">
-        <v>571.4425115793968</v>
+        <v>571.4425115793834</v>
       </c>
       <c r="C9">
-        <v>0.8640990323351272</v>
+        <v>0.8640990323351077</v>
       </c>
       <c r="D9">
-        <v>33145.93431289876</v>
+        <v>33145.93431289877</v>
       </c>
       <c r="E9">
         <v>11270.2168479803</v>
@@ -854,39 +908,45 @@
         <v>10608.91809286065</v>
       </c>
       <c r="G9">
-        <v>43.05742857012737</v>
+        <v>43.0574285701275</v>
       </c>
       <c r="H9">
-        <v>104.9530721112571</v>
+        <v>104.9530721112575</v>
       </c>
       <c r="I9">
-        <v>1.114666416764754E-09</v>
+        <v>1.114666416764753E-09</v>
       </c>
       <c r="J9">
-        <v>5.020543782505683E-10</v>
+        <v>5.020543782505672E-10</v>
       </c>
       <c r="K9">
-        <v>0.001674233771447005</v>
+        <v>0.001674233771447007</v>
       </c>
       <c r="L9">
-        <v>0.0933549984634305</v>
+        <v>0.09335499846343052</v>
       </c>
       <c r="M9">
-        <v>855.2056725835264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.09335499846343052</v>
+      </c>
+      <c r="N9">
+        <v>855.205672583527</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>81.06561151903044</v>
+        <v>81.06561151903038</v>
       </c>
       <c r="B10">
-        <v>780.1385798157727</v>
+        <v>780.1385798157437</v>
       </c>
       <c r="C10">
-        <v>1.158142506397376</v>
+        <v>1.158142506397334</v>
       </c>
       <c r="D10">
-        <v>32870.26906812189</v>
+        <v>32870.26906812191</v>
       </c>
       <c r="E10">
         <v>11118.66223617016</v>
@@ -895,77 +955,89 @@
         <v>10445.07406515463</v>
       </c>
       <c r="G10">
-        <v>40.66785696972212</v>
+        <v>40.66785696972225</v>
       </c>
       <c r="H10">
-        <v>98.06983978060775</v>
+        <v>98.06983978060822</v>
       </c>
       <c r="I10">
-        <v>1.134362126356481E-09</v>
+        <v>1.134362126356476E-09</v>
       </c>
       <c r="J10">
-        <v>5.193583492216088E-10</v>
+        <v>5.193583492216071E-10</v>
       </c>
       <c r="K10">
-        <v>0.001635340933103156</v>
+        <v>0.001635340933103163</v>
       </c>
       <c r="L10">
-        <v>0.09324331085314022</v>
+        <v>0.09324331085314028</v>
       </c>
       <c r="M10">
-        <v>846.0719427176547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.09324331085314028</v>
+      </c>
+      <c r="N10">
+        <v>846.0719427176568</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>82.55636562829383</v>
+        <v>82.55636562829376</v>
       </c>
       <c r="B11">
-        <v>1049.066326868917</v>
+        <v>1049.066326868911</v>
       </c>
       <c r="C11">
-        <v>1.52951111290111</v>
+        <v>1.529511112901102</v>
       </c>
       <c r="D11">
-        <v>32606.79782896911</v>
+        <v>32606.79782896912</v>
       </c>
       <c r="E11">
         <v>10977.06118767046</v>
       </c>
       <c r="F11">
-        <v>10291.20993184416</v>
+        <v>10291.20993184415</v>
       </c>
       <c r="G11">
-        <v>38.17681597010641</v>
+        <v>38.17681597010642</v>
       </c>
       <c r="H11">
-        <v>91.52210610610095</v>
+        <v>91.52210610610106</v>
       </c>
       <c r="I11">
-        <v>1.154295361155451E-09</v>
+        <v>1.154295361155452E-09</v>
       </c>
       <c r="J11">
-        <v>5.376391314138794E-10</v>
+        <v>5.376391314138788E-10</v>
       </c>
       <c r="K11">
-        <v>0.00158908512296995</v>
+        <v>0.001589085122969951</v>
       </c>
       <c r="L11">
-        <v>0.09318634456549231</v>
+        <v>0.09318634456549225</v>
       </c>
       <c r="M11">
-        <v>838.480835738836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.09318634456549225</v>
+      </c>
+      <c r="N11">
+        <v>838.4808357388358</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>84.04711973755722</v>
+        <v>84.04711973755714</v>
       </c>
       <c r="B12">
-        <v>1391.09941067106</v>
+        <v>1391.099410671011</v>
       </c>
       <c r="C12">
-        <v>1.992618211261333</v>
+        <v>1.992618211261265</v>
       </c>
       <c r="D12">
         <v>32354.53174833305</v>
@@ -974,3677 +1046,4217 @@
         <v>10844.87226815119</v>
       </c>
       <c r="F12">
-        <v>10146.78884744097</v>
+        <v>10146.78884744096</v>
       </c>
       <c r="G12">
-        <v>35.66769616461389</v>
+        <v>35.66769616461423</v>
       </c>
       <c r="H12">
-        <v>85.34784304909738</v>
+        <v>85.34784304909785</v>
       </c>
       <c r="I12">
         <v>1.17452974327902E-09</v>
       </c>
       <c r="J12">
-        <v>5.569764379477524E-10</v>
+        <v>5.569764379477514E-10</v>
       </c>
       <c r="K12">
-        <v>0.001536005092341191</v>
+        <v>0.001536005092341193</v>
       </c>
       <c r="L12">
-        <v>0.09317495041760532</v>
+        <v>0.09317495041760525</v>
       </c>
       <c r="M12">
-        <v>832.0713676181697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.09317495041760525</v>
+      </c>
+      <c r="N12">
+        <v>832.0713676181686</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>85.5378738468206</v>
+        <v>85.53787384682052</v>
       </c>
       <c r="B13">
-        <v>1820.893478308482</v>
+        <v>1820.893478308444</v>
       </c>
       <c r="C13">
-        <v>2.563424340138338</v>
+        <v>2.563424340138289</v>
       </c>
       <c r="D13">
-        <v>32112.56529194417</v>
+        <v>32112.56529194418</v>
       </c>
       <c r="E13">
-        <v>10721.5090776278</v>
+        <v>10721.50907762781</v>
       </c>
       <c r="F13">
-        <v>10011.22943534829</v>
+        <v>10011.2294353483</v>
       </c>
       <c r="G13">
-        <v>33.20223432201341</v>
+        <v>33.20223432201345</v>
       </c>
       <c r="H13">
-        <v>79.56858401741616</v>
+        <v>79.56858401741646</v>
       </c>
       <c r="I13">
         <v>1.195127965552155E-09</v>
       </c>
       <c r="J13">
-        <v>5.774538469838431E-10</v>
+        <v>5.774538469838418E-10</v>
       </c>
       <c r="K13">
-        <v>0.001476878602233574</v>
+        <v>0.001476878602233576</v>
       </c>
       <c r="L13">
-        <v>0.09319980284216298</v>
+        <v>0.09319980284216299</v>
       </c>
       <c r="M13">
-        <v>826.5578071229762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.09319980284216299</v>
+      </c>
+      <c r="N13">
+        <v>826.5578071229771</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>87.02862795608399</v>
+        <v>87.02862795608389</v>
       </c>
       <c r="B14">
-        <v>2354.986045313608</v>
+        <v>2354.986045313575</v>
       </c>
       <c r="C14">
-        <v>3.259458644481113</v>
+        <v>3.259458644481071</v>
       </c>
       <c r="D14">
-        <v>31880.06811610681</v>
+        <v>31880.06811610683</v>
       </c>
       <c r="E14">
-        <v>10606.36201497339</v>
+        <v>10606.3620149734</v>
       </c>
       <c r="F14">
-        <v>9883.927547957506</v>
+        <v>9883.927547957523</v>
       </c>
       <c r="G14">
-        <v>30.82469201285679</v>
+        <v>30.82469201285685</v>
       </c>
       <c r="H14">
-        <v>74.19296869800918</v>
+        <v>74.19296869800948</v>
       </c>
       <c r="I14">
-        <v>1.216151857282041E-09</v>
+        <v>1.21615185728204E-09</v>
       </c>
       <c r="J14">
-        <v>5.991587256920388E-10</v>
+        <v>5.991587256920374E-10</v>
       </c>
       <c r="K14">
-        <v>0.001412718824465201</v>
+        <v>0.001412718824465205</v>
       </c>
       <c r="L14">
-        <v>0.09325166354013238</v>
+        <v>0.0932516635401324</v>
       </c>
       <c r="M14">
-        <v>821.7087447891445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.0932516635401324</v>
+      </c>
+      <c r="N14">
+        <v>821.7087447891456</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>88.51938206534739</v>
+        <v>88.51938206534727</v>
       </c>
       <c r="B15">
-        <v>3011.88787526179</v>
+        <v>3011.887875261703</v>
       </c>
       <c r="C15">
-        <v>4.099830537675008</v>
+        <v>4.099830537674896</v>
       </c>
       <c r="D15">
-        <v>31656.27781811453</v>
+        <v>31656.27781811454</v>
       </c>
       <c r="E15">
-        <v>10498.81517522526</v>
+        <v>10498.81517522528</v>
       </c>
       <c r="F15">
-        <v>9764.273155610297</v>
+        <v>9764.273155610319</v>
       </c>
       <c r="G15">
-        <v>28.56541247998606</v>
+        <v>28.5654124799862</v>
       </c>
       <c r="H15">
-        <v>69.21974663238784</v>
+        <v>69.21974663238817</v>
       </c>
       <c r="I15">
-        <v>1.237662505614609E-09</v>
+        <v>1.237662505614608E-09</v>
       </c>
       <c r="J15">
-        <v>6.221820915731855E-10</v>
+        <v>6.22182091573183E-10</v>
       </c>
       <c r="K15">
-        <v>0.001344743824594102</v>
+        <v>0.001344743824594106</v>
       </c>
       <c r="L15">
         <v>0.09332166080227527</v>
       </c>
       <c r="M15">
+        <v>0.09332166080227527</v>
+      </c>
+      <c r="N15">
         <v>817.3334321967317</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>90.01013617461078</v>
+        <v>90.01013617461066</v>
       </c>
       <c r="B16">
-        <v>3812.165124407176</v>
+        <v>3812.165124407089</v>
       </c>
       <c r="C16">
-        <v>5.10523233166531</v>
+        <v>5.105232331665199</v>
       </c>
       <c r="D16">
-        <v>31440.49345532849</v>
+        <v>31440.49345532851</v>
       </c>
       <c r="E16">
-        <v>10398.25916250753</v>
+        <v>10398.25916250755</v>
       </c>
       <c r="F16">
-        <v>9651.663147568697</v>
+        <v>9651.663147568715</v>
       </c>
       <c r="G16">
-        <v>26.44380403893808</v>
+        <v>26.44380403893824</v>
       </c>
       <c r="H16">
-        <v>64.64027731693501</v>
+        <v>64.64027731693537</v>
       </c>
       <c r="I16">
-        <v>1.259720424253794E-09</v>
+        <v>1.259720424253791E-09</v>
       </c>
       <c r="J16">
-        <v>6.466184029910001E-10</v>
+        <v>6.466184029909974E-10</v>
       </c>
       <c r="K16">
-        <v>0.001274317492977507</v>
+        <v>0.001274317492977513</v>
       </c>
       <c r="L16">
         <v>0.09340155349581283</v>
       </c>
       <c r="M16">
-        <v>813.272811288809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.09340155349581283</v>
+      </c>
+      <c r="N16">
+        <v>813.2728112888097</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>91.50089028387417</v>
+        <v>91.50089028387403</v>
       </c>
       <c r="B17">
-        <v>4778.511639599186</v>
+        <v>4778.51163959909</v>
       </c>
       <c r="C17">
-        <v>6.297933644309475</v>
+        <v>6.297933644309357</v>
       </c>
       <c r="D17">
-        <v>31232.06974270354</v>
+        <v>31232.06974270356</v>
       </c>
       <c r="E17">
-        <v>10304.10053307441</v>
+        <v>10304.10053307442</v>
       </c>
       <c r="F17">
-        <v>9545.510759888322</v>
+        <v>9545.510759888337</v>
       </c>
       <c r="G17">
-        <v>24.47081059853775</v>
+        <v>24.47081059853793</v>
       </c>
       <c r="H17">
-        <v>60.44057830027798</v>
+        <v>60.44057830027848</v>
       </c>
       <c r="I17">
-        <v>1.282385762204854E-09</v>
+        <v>1.282385762204853E-09</v>
       </c>
       <c r="J17">
-        <v>6.725652713804222E-10</v>
+        <v>6.7256527138042E-10</v>
       </c>
       <c r="K17">
-        <v>0.001202866672269116</v>
+        <v>0.001202866672269123</v>
       </c>
       <c r="L17">
         <v>0.09348395307760901</v>
       </c>
       <c r="M17">
-        <v>809.3936202037788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.09348395307760901</v>
+      </c>
+      <c r="N17">
+        <v>809.3936202037796</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>92.99164439313756</v>
+        <v>92.99164439313741</v>
       </c>
       <c r="B18">
-        <v>5935.810929894553</v>
+        <v>5935.810929894404</v>
       </c>
       <c r="C18">
-        <v>7.701768459097452</v>
+        <v>7.701768459097271</v>
       </c>
       <c r="D18">
-        <v>31030.41185025491</v>
+        <v>31030.41185025492</v>
       </c>
       <c r="E18">
-        <v>10215.76850085869</v>
+        <v>10215.7685008587</v>
       </c>
       <c r="F18">
-        <v>9445.252263024198</v>
+        <v>9445.252263024206</v>
       </c>
       <c r="G18">
-        <v>22.65093400716244</v>
+        <v>22.65093400716265</v>
       </c>
       <c r="H18">
-        <v>56.60297807048085</v>
+        <v>56.60297807048119</v>
       </c>
       <c r="I18">
-        <v>1.305718546194446E-09</v>
+        <v>1.305718546194445E-09</v>
       </c>
       <c r="J18">
-        <v>7.001230886580739E-10</v>
+        <v>7.00123088658071E-10</v>
       </c>
       <c r="K18">
-        <v>0.001131785553311317</v>
+        <v>0.001131785553311323</v>
       </c>
       <c r="L18">
         <v>0.09356248365909142</v>
       </c>
       <c r="M18">
-        <v>805.5845168200475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.09356248365909142</v>
+      </c>
+      <c r="N18">
+        <v>805.5845168200467</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>94.48239850240094</v>
+        <v>94.4823985024008</v>
       </c>
       <c r="B19">
-        <v>7311.187471422211</v>
+        <v>7311.187471421986</v>
       </c>
       <c r="C19">
-        <v>9.342115767706989</v>
+        <v>9.342115767706714</v>
       </c>
       <c r="D19">
-        <v>30834.9707319335</v>
+        <v>30834.97073193351</v>
       </c>
       <c r="E19">
-        <v>10132.71945218249</v>
+        <v>10132.7194521825</v>
       </c>
       <c r="F19">
-        <v>9350.351456310796</v>
+        <v>9350.351456310795</v>
       </c>
       <c r="G19">
-        <v>20.98387181073284</v>
+        <v>20.98387181073297</v>
       </c>
       <c r="H19">
-        <v>53.10743045261385</v>
+        <v>53.10743045261414</v>
       </c>
       <c r="I19">
         <v>1.329778951457945E-09</v>
       </c>
       <c r="J19">
-        <v>7.293945649282663E-10</v>
+        <v>7.293945649282633E-10</v>
       </c>
       <c r="K19">
-        <v>0.001062342381002702</v>
+        <v>0.001062342381002708</v>
       </c>
       <c r="L19">
         <v>0.09363186800554497</v>
       </c>
       <c r="M19">
-        <v>801.7534937928939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.09363186800554497</v>
+      </c>
+      <c r="N19">
+        <v>801.7534937928934</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>95.97315261166433</v>
+        <v>95.97315261166418</v>
       </c>
       <c r="B20">
-        <v>8934.047148055904</v>
+        <v>8934.04714805591</v>
       </c>
       <c r="C20">
-        <v>11.24587476932977</v>
+        <v>11.2458747693298</v>
       </c>
       <c r="D20">
-        <v>30645.23892591284</v>
+        <v>30645.23892591285</v>
       </c>
       <c r="E20">
-        <v>10054.43973333837</v>
+        <v>10054.43973333838</v>
       </c>
       <c r="F20">
-        <v>9260.302433530707</v>
+        <v>9260.302433530716</v>
       </c>
       <c r="G20">
-        <v>19.46582979503898</v>
+        <v>19.46582979503914</v>
       </c>
       <c r="H20">
-        <v>49.93254393275095</v>
+        <v>49.93254393275124</v>
       </c>
       <c r="I20">
-        <v>1.354627596621923E-09</v>
+        <v>1.354627596621922E-09</v>
       </c>
       <c r="J20">
-        <v>7.604841736925045E-10</v>
+        <v>7.604841736925E-10</v>
       </c>
       <c r="K20">
-        <v>0.0009956034528088883</v>
+        <v>0.0009956034528088948</v>
       </c>
       <c r="L20">
         <v>0.09368793549039112</v>
       </c>
       <c r="M20">
-        <v>797.8260706903768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.09368793549039112</v>
+      </c>
+      <c r="N20">
+        <v>797.8260706903767</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>97.46390672092772</v>
+        <v>97.46390672092755</v>
       </c>
       <c r="B21">
-        <v>10836.10677342919</v>
+        <v>10836.10677342923</v>
       </c>
       <c r="C21">
-        <v>13.44143563074467</v>
+        <v>13.44143563074474</v>
       </c>
       <c r="D21">
-        <v>30460.74677362566</v>
+        <v>30460.74677362568</v>
       </c>
       <c r="E21">
-        <v>9980.447098232835</v>
+        <v>9980.447098232833</v>
       </c>
       <c r="F21">
-        <v>9174.631007275495</v>
+        <v>9174.631007275499</v>
       </c>
       <c r="G21">
-        <v>18.09056286334435</v>
+        <v>18.09056286334452</v>
       </c>
       <c r="H21">
-        <v>47.05637429116241</v>
+        <v>47.05637429116276</v>
       </c>
       <c r="I21">
-        <v>1.380325859413472E-09</v>
+        <v>1.380325859413468E-09</v>
       </c>
       <c r="J21">
-        <v>7.934975044420428E-10</v>
+        <v>7.934975044420388E-10</v>
       </c>
       <c r="K21">
-        <v>0.000932385185655722</v>
+        <v>0.0009323851856557286</v>
       </c>
       <c r="L21">
-        <v>0.0937275556873351</v>
+        <v>0.09372755568733515</v>
       </c>
       <c r="M21">
-        <v>793.7438952894413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.09372755568733515</v>
+      </c>
+      <c r="N21">
+        <v>793.7438952894421</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>98.95466083019109</v>
+        <v>98.95466083019095</v>
       </c>
       <c r="B22">
-        <v>13051.41277871983</v>
+        <v>13051.41277871947</v>
       </c>
       <c r="C22">
-        <v>15.95864682652158</v>
+        <v>15.95864682652116</v>
       </c>
       <c r="D22">
-        <v>30281.05901121825</v>
+        <v>30281.05901121827</v>
       </c>
       <c r="E22">
-        <v>9910.291135001164</v>
+        <v>9910.291135001165</v>
       </c>
       <c r="F22">
-        <v>9092.895111508873</v>
+        <v>9092.895111508866</v>
       </c>
       <c r="G22">
-        <v>16.85019135732705</v>
+        <v>16.85019135732707</v>
       </c>
       <c r="H22">
-        <v>44.45702316811644</v>
+        <v>44.45702316811661</v>
       </c>
       <c r="I22">
-        <v>1.40693621087817E-09</v>
+        <v>1.406936210878171E-09</v>
       </c>
       <c r="J22">
-        <v>8.285405257154089E-10</v>
+        <v>8.285405257154065E-10</v>
       </c>
       <c r="K22">
-        <v>0.0008732382424860933</v>
+        <v>0.0008732382424860968</v>
       </c>
       <c r="L22">
-        <v>0.09374850780719449</v>
+        <v>0.09374850780719447</v>
       </c>
       <c r="M22">
-        <v>789.463497006408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.09374850780719447</v>
+      </c>
+      <c r="N22">
+        <v>789.4634970064084</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>100.4454149394545</v>
+        <v>100.4454149394543</v>
       </c>
       <c r="B23">
-        <v>15616.34928164715</v>
+        <v>15616.34928164698</v>
       </c>
       <c r="C23">
-        <v>18.82878007907476</v>
+        <v>18.82878007907459</v>
       </c>
       <c r="D23">
-        <v>30105.77169257469</v>
+        <v>30105.77169257471</v>
       </c>
       <c r="E23">
-        <v>9843.552931032071</v>
+        <v>9843.552931032084</v>
       </c>
       <c r="F23">
-        <v>9014.684442247937</v>
+        <v>9014.684442247952</v>
       </c>
       <c r="G23">
-        <v>15.73583348794072</v>
+        <v>15.73583348794086</v>
       </c>
       <c r="H23">
-        <v>42.11307933665435</v>
+        <v>42.11307933665466</v>
       </c>
       <c r="I23">
-        <v>1.434522566674046E-09</v>
+        <v>1.434522566674043E-09</v>
       </c>
       <c r="J23">
-        <v>8.657187653656986E-10</v>
+        <v>8.657187653656942E-10</v>
       </c>
       <c r="K23">
-        <v>0.0008184608057128469</v>
+        <v>0.0008184608057128523</v>
       </c>
       <c r="L23">
-        <v>0.09374930101678496</v>
+        <v>0.09374930101678494</v>
       </c>
       <c r="M23">
-        <v>784.9550256633929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.09374930101678494</v>
+      </c>
+      <c r="N23">
+        <v>784.9550256633936</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>101.9361690487179</v>
+        <v>101.9361690487177</v>
       </c>
       <c r="B24">
-        <v>18569.63587199841</v>
+        <v>18569.63587199833</v>
       </c>
       <c r="C24">
-        <v>22.08449390390832</v>
+        <v>22.08449390390827</v>
       </c>
       <c r="D24">
-        <v>29934.50940783251</v>
+        <v>29934.50940783252</v>
       </c>
       <c r="E24">
-        <v>9779.844185012218</v>
+        <v>9779.844185012224</v>
       </c>
       <c r="F24">
-        <v>8939.619545415022</v>
+        <v>8939.619545415026</v>
       </c>
       <c r="G24">
-        <v>14.73808846908858</v>
+        <v>14.73808846908865</v>
       </c>
       <c r="H24">
-        <v>40.00393389638877</v>
+        <v>40.00393389638895</v>
       </c>
       <c r="I24">
-        <v>1.463150654826623E-09</v>
+        <v>1.463150654826622E-09</v>
       </c>
       <c r="J24">
-        <v>9.051364187864706E-10</v>
+        <v>9.051364187864661E-10</v>
       </c>
       <c r="K24">
-        <v>0.000768133196486504</v>
+        <v>0.0007681331964865091</v>
       </c>
       <c r="L24">
         <v>0.0937289634613187</v>
       </c>
       <c r="M24">
-        <v>780.2008843072297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.0937289634613187</v>
+      </c>
+      <c r="N24">
+        <v>780.2008843072301</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>103.4269231579813</v>
+        <v>103.4269231579811</v>
       </c>
       <c r="B25">
-        <v>21952.31555523113</v>
+        <v>21952.31555523067</v>
       </c>
       <c r="C25">
-        <v>25.75979673752712</v>
+        <v>25.75979673752663</v>
       </c>
       <c r="D25">
-        <v>29766.92276547146</v>
+        <v>29766.92276547148</v>
       </c>
       <c r="E25">
-        <v>9718.80593180866</v>
+        <v>9718.805931808673</v>
       </c>
       <c r="F25">
-        <v>8867.350518077183</v>
+        <v>8867.350518077195</v>
       </c>
       <c r="G25">
-        <v>13.8473994336423</v>
+        <v>13.84739943364253</v>
       </c>
       <c r="H25">
-        <v>38.10999553381071</v>
+        <v>38.10999553381109</v>
       </c>
       <c r="I25">
-        <v>1.492888400083137E-09</v>
+        <v>1.492888400083136E-09</v>
       </c>
       <c r="J25">
-        <v>9.46895400020861E-10</v>
+        <v>9.468954000208562E-10</v>
       </c>
       <c r="K25">
-        <v>0.0007221641262701967</v>
+        <v>0.0007221641262702021</v>
       </c>
       <c r="L25">
         <v>0.09368681849653761</v>
       </c>
       <c r="M25">
-        <v>775.1942266950107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.09368681849653761</v>
+      </c>
+      <c r="N25">
+        <v>775.1942266950098</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>104.9176772672447</v>
+        <v>104.9176772672445</v>
       </c>
       <c r="B26">
-        <v>25807.73338655976</v>
+        <v>25807.73338655906</v>
       </c>
       <c r="C26">
-        <v>29.89001058595862</v>
+        <v>29.89001058595786</v>
       </c>
       <c r="D26">
-        <v>29602.68610969826</v>
+        <v>29602.68610969828</v>
       </c>
       <c r="E26">
-        <v>9660.10701043568</v>
+        <v>9660.107010435693</v>
       </c>
       <c r="F26">
-        <v>8797.555453671264</v>
+        <v>8797.555453671281</v>
       </c>
       <c r="G26">
-        <v>13.05432033758589</v>
+        <v>13.05432033758597</v>
       </c>
       <c r="H26">
-        <v>36.41282750620056</v>
+        <v>36.41282750620077</v>
       </c>
       <c r="I26">
-        <v>1.52380632569795E-09</v>
+        <v>1.523806325697946E-09</v>
       </c>
       <c r="J26">
-        <v>9.910943548105847E-10</v>
+        <v>9.910943548105783E-10</v>
       </c>
       <c r="K26">
-        <v>0.0006803396254687072</v>
+        <v>0.0006803396254687123</v>
       </c>
       <c r="L26">
         <v>0.09362226549084447</v>
       </c>
       <c r="M26">
-        <v>769.9373374157088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.09362226549084447</v>
+      </c>
+      <c r="N26">
+        <v>769.9373374157096</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>106.4084313765081</v>
+        <v>106.4084313765078</v>
       </c>
       <c r="B27">
-        <v>30181.50640251056</v>
+        <v>30181.50640250962</v>
       </c>
       <c r="C27">
-        <v>34.51173608298464</v>
+        <v>34.51173608298362</v>
       </c>
       <c r="D27">
-        <v>29441.495448043</v>
+        <v>29441.49544804303</v>
       </c>
       <c r="E27">
-        <v>9603.442376102001</v>
+        <v>9603.442376101997</v>
       </c>
       <c r="F27">
-        <v>8729.938732510245</v>
+        <v>8729.938732510247</v>
       </c>
       <c r="G27">
-        <v>12.34970683247558</v>
+        <v>12.34970683247581</v>
       </c>
       <c r="H27">
-        <v>34.89522411449703</v>
+        <v>34.89522411449734</v>
       </c>
       <c r="I27">
-        <v>1.555977974126428E-09</v>
+        <v>1.555977974126421E-09</v>
       </c>
       <c r="J27">
-        <v>1.037827658478238E-09</v>
+        <v>1.03782765847823E-09</v>
       </c>
       <c r="K27">
-        <v>0.0006423680630255262</v>
+        <v>0.0006423680630255321</v>
       </c>
       <c r="L27">
-        <v>0.09353458008703698</v>
+        <v>0.09353458008703699</v>
       </c>
       <c r="M27">
-        <v>764.4399444773866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.09353458008703699</v>
+      </c>
+      <c r="N27">
+        <v>764.4399444773867</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>107.8991854857714</v>
+        <v>107.8991854857712</v>
       </c>
       <c r="B28">
-        <v>35121.48551497577</v>
+        <v>35121.48551497517</v>
       </c>
       <c r="C28">
-        <v>39.66281979157391</v>
+        <v>39.66281979157331</v>
       </c>
       <c r="D28">
-        <v>29283.06656689079</v>
+        <v>29283.06656689082</v>
       </c>
       <c r="E28">
-        <v>9548.53133351808</v>
+        <v>9548.531333518087</v>
       </c>
       <c r="F28">
-        <v>8664.229235000226</v>
+        <v>8664.229235000239</v>
       </c>
       <c r="G28">
-        <v>11.72484747640969</v>
+        <v>11.72484747640976</v>
       </c>
       <c r="H28">
-        <v>33.54124110971673</v>
+        <v>33.54124110971689</v>
       </c>
       <c r="I28">
-        <v>1.589480348711384E-09</v>
+        <v>1.589480348711375E-09</v>
       </c>
       <c r="J28">
-        <v>1.087184424805745E-09</v>
+        <v>1.087184424805737E-09</v>
       </c>
       <c r="K28">
-        <v>0.0006079174911962644</v>
+        <v>0.0006079174911962698</v>
       </c>
       <c r="L28">
-        <v>0.09342274560867408</v>
+        <v>0.09342274560867411</v>
       </c>
       <c r="M28">
-        <v>758.7175307362983</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.09342274560867411</v>
+      </c>
+      <c r="N28">
+        <v>758.7175307363</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>109.3899395950348</v>
+        <v>109.3899395950346</v>
       </c>
       <c r="B29">
-        <v>40677.71007477221</v>
+        <v>40677.7100747715</v>
       </c>
       <c r="C29">
-        <v>45.3823245223904</v>
+        <v>45.38232452238969</v>
       </c>
       <c r="D29">
-        <v>29127.13331514407</v>
+        <v>29127.13331514408</v>
       </c>
       <c r="E29">
-        <v>9495.115749429271</v>
+        <v>9495.115749429295</v>
       </c>
       <c r="F29">
-        <v>8600.178535733847</v>
+        <v>8600.178535733867</v>
       </c>
       <c r="G29">
-        <v>11.17154860502389</v>
+        <v>11.17154860502399</v>
       </c>
       <c r="H29">
-        <v>32.33619167944452</v>
+        <v>32.3361916794447</v>
       </c>
       <c r="I29">
-        <v>1.624394379027664E-09</v>
+        <v>1.624394379027663E-09</v>
       </c>
       <c r="J29">
-        <v>1.13924755450292E-09</v>
+        <v>1.139247554502914E-09</v>
       </c>
       <c r="K29">
-        <v>0.0005766439957700238</v>
+        <v>0.000576643995770028</v>
       </c>
       <c r="L29">
         <v>0.09328532387932192</v>
       </c>
       <c r="M29">
-        <v>752.7897134841653</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.09328532387932192</v>
+      </c>
+      <c r="N29">
+        <v>752.7897134841651</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>110.8806937042982</v>
+        <v>110.880693704298</v>
       </c>
       <c r="B30">
-        <v>46902.35583847271</v>
+        <v>46902.35583847261</v>
       </c>
       <c r="C30">
-        <v>51.71050338222925</v>
+        <v>51.71050338222924</v>
       </c>
       <c r="D30">
-        <v>28973.44603839143</v>
+        <v>28973.44603839145</v>
       </c>
       <c r="E30">
-        <v>9442.958286975125</v>
+        <v>9442.958286975128</v>
       </c>
       <c r="F30">
-        <v>8537.559121215954</v>
+        <v>8537.559121215958</v>
       </c>
       <c r="G30">
-        <v>10.68218363315493</v>
+        <v>10.68218363315512</v>
       </c>
       <c r="H30">
-        <v>31.26661732722248</v>
+        <v>31.26661732722277</v>
       </c>
       <c r="I30">
-        <v>1.66080541311919E-09</v>
+        <v>1.660805413119185E-09</v>
       </c>
       <c r="J30">
-        <v>1.194092853207652E-09</v>
+        <v>1.194092853207642E-09</v>
       </c>
       <c r="K30">
-        <v>0.000548211430805369</v>
+        <v>0.0005482114308053739</v>
       </c>
       <c r="L30">
-        <v>0.09312037044926444</v>
+        <v>0.09312037044926447</v>
       </c>
       <c r="M30">
-        <v>746.6787538483668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.09312037044926447</v>
+      </c>
+      <c r="N30">
+        <v>746.6787538483666</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>112.3714478135616</v>
+        <v>112.3714478135614</v>
       </c>
       <c r="B31">
-        <v>53849.67708511931</v>
+        <v>53849.67708511767</v>
       </c>
       <c r="C31">
-        <v>58.68877820531623</v>
+        <v>58.68877820531455</v>
       </c>
       <c r="D31">
-        <v>28821.77014788407</v>
+        <v>28821.7701478841</v>
       </c>
       <c r="E31">
-        <v>9391.840692301006</v>
+        <v>9391.840692301017</v>
       </c>
       <c r="F31">
-        <v>8476.162661762619</v>
+        <v>8476.162661762633</v>
       </c>
       <c r="G31">
-        <v>10.24971543988476</v>
+        <v>10.24971543988477</v>
       </c>
       <c r="H31">
-        <v>30.32024102799781</v>
+        <v>30.32024102799786</v>
       </c>
       <c r="I31">
-        <v>1.698803740432612E-09</v>
+        <v>1.698803740432605E-09</v>
       </c>
       <c r="J31">
-        <v>1.25178824902955E-09</v>
+        <v>1.25178824902954E-09</v>
       </c>
       <c r="K31">
-        <v>0.000522303849687324</v>
+        <v>0.0005223038496873279</v>
       </c>
       <c r="L31">
-        <v>0.09292539626526668</v>
+        <v>0.0929253962652667</v>
       </c>
       <c r="M31">
-        <v>740.4082431046336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.0929253962652667</v>
+      </c>
+      <c r="N31">
+        <v>740.4082431046351</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>113.862201922825</v>
+        <v>113.8622019228248</v>
       </c>
       <c r="B32">
-        <v>61575.9436299209</v>
+        <v>61575.94362991885</v>
       </c>
       <c r="C32">
-        <v>66.35972296393227</v>
+        <v>66.35972296393015</v>
       </c>
       <c r="D32">
-        <v>28671.88481032139</v>
+        <v>28671.88481032141</v>
       </c>
       <c r="E32">
-        <v>9341.562154290425</v>
+        <v>9341.562154290423</v>
       </c>
       <c r="F32">
-        <v>8415.798358522779</v>
+        <v>8415.798358522778</v>
       </c>
       <c r="G32">
-        <v>9.867698742659922</v>
+        <v>9.86769874265997</v>
       </c>
       <c r="H32">
-        <v>29.48590845903504</v>
+        <v>29.48590845903514</v>
       </c>
       <c r="I32">
-        <v>1.738485149836916E-09</v>
+        <v>1.73848514983691E-09</v>
       </c>
       <c r="J32">
-        <v>1.312393138324479E-09</v>
+        <v>1.31239313832447E-09</v>
       </c>
       <c r="K32">
-        <v>0.000498632279365561</v>
+        <v>0.0004986322793655645</v>
       </c>
       <c r="L32">
-        <v>0.09269737521315821</v>
+        <v>0.0926973752131582</v>
       </c>
       <c r="M32">
-        <v>734.0019952758778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.0926973752131582</v>
+      </c>
+      <c r="N32">
+        <v>734.0019952758788</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>115.3529560320884</v>
+        <v>115.3529560320881</v>
       </c>
       <c r="B33">
-        <v>70139.37347182365</v>
+        <v>70139.3734718215</v>
       </c>
       <c r="C33">
-        <v>74.76705270378005</v>
+        <v>74.76705270377789</v>
       </c>
       <c r="D33">
-        <v>28523.58174595221</v>
+        <v>28523.58174595224</v>
       </c>
       <c r="E33">
-        <v>9291.937750861729</v>
+        <v>9291.93775086174</v>
       </c>
       <c r="F33">
-        <v>8356.291379119368</v>
+        <v>8356.291379119386</v>
       </c>
       <c r="G33">
-        <v>9.530267933563744</v>
+        <v>9.530267933563781</v>
       </c>
       <c r="H33">
-        <v>28.7535218147462</v>
+        <v>28.75352181474635</v>
       </c>
       <c r="I33">
-        <v>1.779951527732602E-09</v>
+        <v>1.779951527732591E-09</v>
       </c>
       <c r="J33">
-        <v>1.375957885644363E-09</v>
+        <v>1.375957885644349E-09</v>
       </c>
       <c r="K33">
-        <v>0.0004769374388850569</v>
+        <v>0.0004769374388850609</v>
       </c>
       <c r="L33">
-        <v>0.09243279470217489</v>
+        <v>0.09243279470217497</v>
       </c>
       <c r="M33">
-        <v>727.4831576571436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.09243279470217497</v>
+      </c>
+      <c r="N33">
+        <v>727.4831576571457</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>116.8437101413518</v>
+        <v>116.8437101413515</v>
       </c>
       <c r="B34">
-        <v>79600.06179276116</v>
+        <v>79600.06179275969</v>
       </c>
       <c r="C34">
-        <v>83.95561850579794</v>
+        <v>83.95561850579656</v>
       </c>
       <c r="D34">
-        <v>28376.66412382809</v>
+        <v>28376.66412382813</v>
       </c>
       <c r="E34">
-        <v>9242.796989569906</v>
+        <v>9242.796989569915</v>
       </c>
       <c r="F34">
-        <v>8297.481389682647</v>
+        <v>8297.481389682662</v>
       </c>
       <c r="G34">
-        <v>9.232114682168003</v>
+        <v>9.232114682168033</v>
       </c>
       <c r="H34">
-        <v>28.11396966823856</v>
+        <v>28.11396966823863</v>
       </c>
       <c r="I34">
-        <v>1.823311501913536E-09</v>
+        <v>1.823311501913526E-09</v>
       </c>
       <c r="J34">
-        <v>1.442523499726719E-09</v>
+        <v>1.442523499726706E-09</v>
       </c>
       <c r="K34">
-        <v>0.0004569897637115774</v>
+        <v>0.0004569897637115813</v>
       </c>
       <c r="L34">
-        <v>0.09212774457303048</v>
+        <v>0.09212774457303062</v>
       </c>
       <c r="M34">
-        <v>720.8735354352309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.09212774457303062</v>
+      </c>
+      <c r="N34">
+        <v>720.8735354352323</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>118.3344642506152</v>
+        <v>118.3344642506149</v>
       </c>
       <c r="B35">
-        <v>90019.90700015989</v>
+        <v>90019.90700015842</v>
       </c>
       <c r="C35">
-        <v>93.97140894129727</v>
+        <v>93.97140894129593</v>
       </c>
       <c r="D35">
-        <v>28230.94554422288</v>
+        <v>28230.9455442229</v>
       </c>
       <c r="E35">
-        <v>9193.982445935584</v>
+        <v>9193.982445935593</v>
       </c>
       <c r="F35">
-        <v>8239.221186715396</v>
+        <v>8239.221186715404</v>
       </c>
       <c r="G35">
         <v>8.96845866096646</v>
       </c>
       <c r="H35">
-        <v>27.55905550084965</v>
+        <v>27.5590555008497</v>
       </c>
       <c r="I35">
-        <v>1.86868113756436E-09</v>
+        <v>1.868681137564356E-09</v>
       </c>
       <c r="J35">
-        <v>1.512121502157023E-09</v>
+        <v>1.512121502157012E-09</v>
       </c>
       <c r="K35">
-        <v>0.000438587793691954</v>
+        <v>0.000438587793691957</v>
       </c>
       <c r="L35">
-        <v>0.0917780382136031</v>
+        <v>0.09177803821360318</v>
       </c>
       <c r="M35">
-        <v>714.1931146503451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.09177803821360318</v>
+      </c>
+      <c r="N35">
+        <v>714.1931146503462</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>119.8252183598785</v>
+        <v>119.8252183598782</v>
       </c>
       <c r="B36">
-        <v>101462.534472621</v>
+        <v>101462.5344726185</v>
       </c>
       <c r="C36">
-        <v>104.8615584628092</v>
+        <v>104.8615584628068</v>
       </c>
       <c r="D36">
-        <v>28086.24909927415</v>
+        <v>28086.24909927417</v>
       </c>
       <c r="E36">
-        <v>9145.3484997018</v>
+        <v>9145.348499701815</v>
       </c>
       <c r="F36">
-        <v>8181.375429000153</v>
+        <v>8181.375429000163</v>
       </c>
       <c r="G36">
-        <v>8.735013983520606</v>
+        <v>8.735013983520625</v>
       </c>
       <c r="H36">
-        <v>27.08142684805824</v>
+        <v>27.08142684805833</v>
       </c>
       <c r="I36">
-        <v>1.916184692574041E-09</v>
+        <v>1.916184692574035E-09</v>
       </c>
       <c r="J36">
-        <v>1.584773999233393E-09</v>
+        <v>1.584773999233381E-09</v>
       </c>
       <c r="K36">
-        <v>0.0004215556900490205</v>
+        <v>0.0004215556900490232</v>
       </c>
       <c r="L36">
-        <v>0.09137935905066306</v>
+        <v>0.09137935905066308</v>
       </c>
       <c r="M36">
-        <v>707.4597597949329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.09137935905066308</v>
+      </c>
+      <c r="N36">
+        <v>707.459759794934</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>121.3159724691419</v>
+        <v>121.3159724691416</v>
       </c>
       <c r="B37">
-        <v>113993.2186333481</v>
+        <v>113993.2186333461</v>
       </c>
       <c r="C37">
-        <v>116.674363160309</v>
+        <v>116.6743631603072</v>
       </c>
       <c r="D37">
-        <v>27942.40650382465</v>
+        <v>27942.40650382468</v>
       </c>
       <c r="E37">
-        <v>9096.760166868064</v>
+        <v>9096.760166868082</v>
       </c>
       <c r="F37">
-        <v>8123.819467405772</v>
+        <v>8123.8194674058</v>
       </c>
       <c r="G37">
-        <v>8.527953330170917</v>
+        <v>8.527953330170957</v>
       </c>
       <c r="H37">
-        <v>26.67450647587862</v>
+        <v>26.67450647587866</v>
       </c>
       <c r="I37">
-        <v>1.965955440240033E-09</v>
+        <v>1.965955440240015E-09</v>
       </c>
       <c r="J37">
-        <v>1.660493960937614E-09</v>
+        <v>1.660493960937596E-09</v>
       </c>
       <c r="K37">
-        <v>0.0004057404005429315</v>
+        <v>0.0004057404005429351</v>
       </c>
       <c r="L37">
-        <v>0.09092742575381373</v>
+        <v>0.09092742575381388</v>
       </c>
       <c r="M37">
-        <v>700.6890581322355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.09092742575381388</v>
+      </c>
+      <c r="N37">
+        <v>700.6890581322377</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>122.8067265784053</v>
+        <v>122.806726578405</v>
       </c>
       <c r="B38">
-        <v>127678.8039381467</v>
+        <v>127678.8039381432</v>
       </c>
       <c r="C38">
-        <v>129.4593043125881</v>
+        <v>129.4593043125847</v>
       </c>
       <c r="D38">
-        <v>27799.25728925716</v>
+        <v>27799.25728925718</v>
       </c>
       <c r="E38">
-        <v>9048.09202367893</v>
+        <v>9048.092023678928</v>
       </c>
       <c r="F38">
         <v>8066.438268781913</v>
       </c>
       <c r="G38">
-        <v>8.343871244562608</v>
+        <v>8.343871244562704</v>
       </c>
       <c r="H38">
-        <v>26.33242658090121</v>
+        <v>26.33242658090132</v>
       </c>
       <c r="I38">
-        <v>2.018136568448916E-09</v>
+        <v>2.018136568448905E-09</v>
       </c>
       <c r="J38">
-        <v>1.739285704161051E-09</v>
+        <v>1.739285704161037E-09</v>
       </c>
       <c r="K38">
-        <v>0.0003910088016497947</v>
+        <v>0.0003910088016497971</v>
       </c>
       <c r="L38">
-        <v>0.09041817061771974</v>
+        <v>0.09041817061771984</v>
       </c>
       <c r="M38">
-        <v>693.8942817192063</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.09041817061771984</v>
+      </c>
+      <c r="N38">
+        <v>693.894281719207</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>124.2974806876687</v>
+        <v>124.2974806876684</v>
       </c>
       <c r="B39">
-        <v>142587.6253263513</v>
+        <v>142587.6253263471</v>
       </c>
       <c r="C39">
-        <v>143.26708017806</v>
+        <v>143.2670801780561</v>
       </c>
       <c r="D39">
-        <v>27656.64805383801</v>
+        <v>27656.64805383804</v>
       </c>
       <c r="E39">
-        <v>8999.227217597725</v>
+        <v>8999.227217597741</v>
       </c>
       <c r="F39">
-        <v>8009.125428992314</v>
+        <v>8009.12542899233</v>
       </c>
       <c r="G39">
-        <v>8.179747693795095</v>
+        <v>8.179747693795147</v>
       </c>
       <c r="H39">
-        <v>26.04996667845344</v>
+        <v>26.04996667845353</v>
       </c>
       <c r="I39">
-        <v>2.072882165570739E-09</v>
+        <v>2.072882165570729E-09</v>
       </c>
       <c r="J39">
-        <v>1.821145570847834E-09</v>
+        <v>1.821145570847819E-09</v>
       </c>
       <c r="K39">
-        <v>0.0003772450088348249</v>
+        <v>0.0003772450088348275</v>
       </c>
       <c r="L39">
-        <v>0.08984792748176203</v>
+        <v>0.08984792748176212</v>
       </c>
       <c r="M39">
-        <v>687.0864393403405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.08984792748176212</v>
+      </c>
+      <c r="N39">
+        <v>687.0864393403415</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>125.7882347969321</v>
+        <v>125.7882347969318</v>
       </c>
       <c r="B40">
-        <v>158789.4286449373</v>
+        <v>158789.428644931</v>
       </c>
       <c r="C40">
-        <v>158.1496464993867</v>
+        <v>158.1496464993805</v>
       </c>
       <c r="D40">
-        <v>27514.43176372294</v>
+        <v>27514.43176372296</v>
       </c>
       <c r="E40">
-        <v>8950.056559553317</v>
+        <v>8950.056559553333</v>
       </c>
       <c r="F40">
-        <v>7951.78226940848</v>
+        <v>7951.782269408494</v>
       </c>
       <c r="G40">
-        <v>8.032912676927268</v>
+        <v>8.032912676927216</v>
       </c>
       <c r="H40">
         <v>25.82249558935179</v>
       </c>
       <c r="I40">
-        <v>2.130358304622908E-09</v>
+        <v>2.130358304622899E-09</v>
       </c>
       <c r="J40">
-        <v>1.906062785871528E-09</v>
+        <v>1.906062785871512E-09</v>
       </c>
       <c r="K40">
-        <v>0.0003643479516913305</v>
+        <v>0.0003643479516913326</v>
       </c>
       <c r="L40">
-        <v>0.08921362759439067</v>
+        <v>0.0892136275943908</v>
       </c>
       <c r="M40">
-        <v>680.2743933039503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.0892136275943908</v>
+      </c>
+      <c r="N40">
+        <v>680.2743933039524</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>127.2789889061955</v>
+        <v>127.2789889061952</v>
       </c>
       <c r="B41">
-        <v>176355.2915193894</v>
+        <v>176355.2915193858</v>
       </c>
       <c r="C41">
-        <v>174.1602662434302</v>
+        <v>174.160266243427</v>
       </c>
       <c r="D41">
-        <v>27372.46709934308</v>
+        <v>27372.46709934311</v>
       </c>
       <c r="E41">
-        <v>8900.47769130684</v>
+        <v>8900.477691306873</v>
       </c>
       <c r="F41">
-        <v>7894.317010761682</v>
+        <v>7894.317010761711</v>
       </c>
       <c r="G41">
-        <v>7.901012425367211</v>
+        <v>7.901012425367208</v>
       </c>
       <c r="H41">
-        <v>25.64591774198899</v>
+        <v>25.645917741989</v>
       </c>
       <c r="I41">
-        <v>2.1907442387756E-09</v>
+        <v>2.190744238775591E-09</v>
       </c>
       <c r="J41">
-        <v>1.994020474568492E-09</v>
+        <v>1.994020474568476E-09</v>
       </c>
       <c r="K41">
-        <v>0.0003522292496708362</v>
+        <v>0.0003522292496708385</v>
       </c>
       <c r="L41">
-        <v>0.08851300298743152</v>
+        <v>0.08851300298743163</v>
       </c>
       <c r="M41">
-        <v>673.4650196251804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.08851300298743163</v>
+      </c>
+      <c r="N41">
+        <v>673.4650196251815</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>128.7697430154589</v>
+        <v>128.7697430154585</v>
       </c>
       <c r="B42">
-        <v>195357.5451110639</v>
+        <v>195357.5451110569</v>
       </c>
       <c r="C42">
-        <v>191.3535691642986</v>
+        <v>191.3535691642919</v>
       </c>
       <c r="D42">
-        <v>27230.61784238782</v>
+        <v>27230.61784238784</v>
       </c>
       <c r="E42">
-        <v>8850.394321571357</v>
+        <v>8850.394321571359</v>
       </c>
       <c r="F42">
-        <v>7836.644018058061</v>
+        <v>7836.644018058064</v>
       </c>
       <c r="G42">
-        <v>7.78197755147916</v>
+        <v>7.781977551479212</v>
       </c>
       <c r="H42">
-        <v>25.5166238611096</v>
+        <v>25.51662386110968</v>
       </c>
       <c r="I42">
-        <v>2.254233723020372E-09</v>
+        <v>2.25423372302036E-09</v>
       </c>
       <c r="J42">
-        <v>2.08499681614053E-09</v>
+        <v>2.084996816140511E-09</v>
       </c>
       <c r="K42">
-        <v>0.000340811387093856</v>
+        <v>0.0003408113870938583</v>
       </c>
       <c r="L42">
-        <v>0.08774479587744437</v>
+        <v>0.08774479587744452</v>
       </c>
       <c r="M42">
-        <v>666.6633939767232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.08774479587744452</v>
+      </c>
+      <c r="N42">
+        <v>666.6633939767245</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>130.2604971247223</v>
+        <v>130.2604971247219</v>
       </c>
       <c r="B43">
-        <v>215869.6971700727</v>
+        <v>215869.6971700672</v>
       </c>
       <c r="C43">
-        <v>209.7856218639809</v>
+        <v>209.7856218639758</v>
       </c>
       <c r="D43">
-        <v>27088.75229904176</v>
+        <v>27088.7522990418</v>
       </c>
       <c r="E43">
-        <v>8799.715524463483</v>
+        <v>8799.715524463489</v>
       </c>
       <c r="F43">
-        <v>7778.683110231334</v>
+        <v>7778.683110231343</v>
       </c>
       <c r="G43">
-        <v>7.673993357995417</v>
+        <v>7.673993357995475</v>
       </c>
       <c r="H43">
-        <v>25.43144600782379</v>
+        <v>25.43144600782381</v>
       </c>
       <c r="I43">
-        <v>2.32103647884822E-09</v>
+        <v>2.321036478848202E-09</v>
       </c>
       <c r="J43">
-        <v>2.17896630674517E-09</v>
+        <v>2.178966306745148E-09</v>
       </c>
       <c r="K43">
-        <v>0.0003300261655987141</v>
+        <v>0.0003300261655987171</v>
       </c>
       <c r="L43">
-        <v>0.08690896820178255</v>
+        <v>0.08690896820178275</v>
       </c>
       <c r="M43">
-        <v>659.8729895441141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.08690896820178275</v>
+      </c>
+      <c r="N43">
+        <v>659.8729895441155</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>131.7512512339856</v>
+        <v>131.7512512339853</v>
       </c>
       <c r="B44">
-        <v>237966.35676667</v>
+        <v>237966.3567666688</v>
       </c>
       <c r="C44">
-        <v>229.5140091353111</v>
+        <v>229.5140091353107</v>
       </c>
       <c r="D44">
-        <v>26946.74275552266</v>
+        <v>26946.7427555227</v>
       </c>
       <c r="E44">
-        <v>8748.355093927918</v>
+        <v>8748.355093927928</v>
       </c>
       <c r="F44">
-        <v>7720.358928295592</v>
+        <v>7720.35892829561</v>
       </c>
       <c r="G44">
-        <v>7.575472411890226</v>
+        <v>7.575472411890184</v>
       </c>
       <c r="H44">
-        <v>25.38761685926987</v>
+        <v>25.38761685926981</v>
       </c>
       <c r="I44">
-        <v>2.391379821133127E-09</v>
+        <v>2.391379821133107E-09</v>
       </c>
       <c r="J44">
-        <v>2.275901105047533E-09</v>
+        <v>2.275901105047509E-09</v>
       </c>
       <c r="K44">
-        <v>0.0003198134024770088</v>
+        <v>0.0003198134024770113</v>
       </c>
       <c r="L44">
-        <v>0.08600689731522788</v>
+        <v>0.08600689731522812</v>
       </c>
       <c r="M44">
-        <v>653.0958763356609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.08600689731522812</v>
+      </c>
+      <c r="N44">
+        <v>653.0958763356634</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>133.242005343249</v>
+        <v>133.2420053432487</v>
       </c>
       <c r="B45">
-        <v>261723.1610628277</v>
+        <v>261723.161062821</v>
       </c>
       <c r="C45">
-        <v>250.5979275077543</v>
+        <v>250.5979275077484</v>
       </c>
       <c r="D45">
-        <v>26804.46496231023</v>
+        <v>26804.46496231025</v>
       </c>
       <c r="E45">
-        <v>8696.230947910422</v>
+        <v>8696.230947910441</v>
       </c>
       <c r="F45">
-        <v>7661.600355922968</v>
+        <v>7661.600355922982</v>
       </c>
       <c r="G45">
-        <v>7.485029405143585</v>
+        <v>7.485029405143587</v>
       </c>
       <c r="H45">
-        <v>25.38273306436667</v>
+        <v>25.38273306436668</v>
       </c>
       <c r="I45">
-        <v>2.465510469150301E-09</v>
+        <v>2.465510469150291E-09</v>
       </c>
       <c r="J45">
-        <v>2.375772433253424E-09</v>
+        <v>2.375772433253402E-09</v>
       </c>
       <c r="K45">
-        <v>0.0003101198403759046</v>
+        <v>0.0003101198403759064</v>
       </c>
       <c r="L45">
-        <v>0.0850415334031849</v>
+        <v>0.08504153340318509</v>
       </c>
       <c r="M45">
-        <v>646.3329144412485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.08504153340318509</v>
+      </c>
+      <c r="N45">
+        <v>646.3329144412496</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>134.7327594525124</v>
+        <v>134.7327594525121</v>
       </c>
       <c r="B46">
-        <v>287216.7044703501</v>
+        <v>287216.7044703438</v>
       </c>
       <c r="C46">
-        <v>273.0982920814683</v>
+        <v>273.0982920814629</v>
       </c>
       <c r="D46">
-        <v>26661.79764375911</v>
+        <v>26661.79764375914</v>
       </c>
       <c r="E46">
-        <v>8643.264576237425</v>
+        <v>8643.264576237438</v>
       </c>
       <c r="F46">
-        <v>7602.339986582644</v>
+        <v>7602.339986582661</v>
       </c>
       <c r="G46">
-        <v>7.401458265572145</v>
+        <v>7.401458265572183</v>
       </c>
       <c r="H46">
-        <v>25.41472247912988</v>
+        <v>25.41472247912987</v>
       </c>
       <c r="I46">
-        <v>2.543696566846124E-09</v>
+        <v>2.543696566846099E-09</v>
       </c>
       <c r="J46">
-        <v>2.478552008041695E-09</v>
+        <v>2.478552008041666E-09</v>
       </c>
       <c r="K46">
-        <v>0.0003008982348077669</v>
+        <v>0.0003008982348077692</v>
       </c>
       <c r="L46">
-        <v>0.08401748460416357</v>
+        <v>0.08401748460416383</v>
       </c>
       <c r="M46">
-        <v>639.5839361665094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.08401748460416383</v>
+      </c>
+      <c r="N46">
+        <v>639.5839361665114</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>136.2235135617758</v>
+        <v>136.2235135617754</v>
       </c>
       <c r="B47">
-        <v>314524.4705326364</v>
+        <v>314524.4705326287</v>
       </c>
       <c r="C47">
-        <v>297.0778579323912</v>
+        <v>297.0778579323843</v>
       </c>
       <c r="D47">
-        <v>26518.62203005662</v>
+        <v>26518.62203005666</v>
       </c>
       <c r="E47">
-        <v>8589.380526365558</v>
+        <v>8589.380526365569</v>
       </c>
       <c r="F47">
-        <v>7542.513631612665</v>
+        <v>7542.513631612678</v>
       </c>
       <c r="G47">
-        <v>7.323711438878399</v>
+        <v>7.323711438878385</v>
       </c>
       <c r="H47">
-        <v>25.48181506680865</v>
+        <v>25.4818150668086</v>
       </c>
       <c r="I47">
-        <v>2.626229941202693E-09</v>
+        <v>2.626229941202669E-09</v>
       </c>
       <c r="J47">
-        <v>2.584213478168132E-09</v>
+        <v>2.584213478168103E-09</v>
       </c>
       <c r="K47">
-        <v>0.0002921065889368188</v>
+        <v>0.0002921065889368209</v>
       </c>
       <c r="L47">
-        <v>0.08294099202892241</v>
+        <v>0.08294099202892272</v>
       </c>
       <c r="M47">
-        <v>632.847913903736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.08294099202892272</v>
+      </c>
+      <c r="N47">
+        <v>632.8479139037381</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>137.7142676710392</v>
+        <v>137.7142676710388</v>
       </c>
       <c r="B48">
-        <v>343724.7668652132</v>
+        <v>343724.7668652049</v>
       </c>
       <c r="C48">
-        <v>322.6013576055379</v>
+        <v>322.6013576055307</v>
       </c>
       <c r="D48">
-        <v>26374.82140872069</v>
+        <v>26374.82140872073</v>
       </c>
       <c r="E48">
-        <v>8534.505921375825</v>
+        <v>8534.505921375843</v>
       </c>
       <c r="F48">
-        <v>7482.059863837144</v>
+        <v>7482.059863837167</v>
       </c>
       <c r="G48">
-        <v>7.250881234563021</v>
+        <v>7.250881234563012</v>
       </c>
       <c r="H48">
-        <v>25.58251724137575</v>
+        <v>25.58251724137567</v>
       </c>
       <c r="I48">
-        <v>2.71342863190765E-09</v>
+        <v>2.713428631907623E-09</v>
       </c>
       <c r="J48">
-        <v>2.692733848593734E-09</v>
+        <v>2.692733848593703E-09</v>
       </c>
       <c r="K48">
-        <v>0.0002837075090317453</v>
+        <v>0.0002837075090317476</v>
       </c>
       <c r="L48">
-        <v>0.08181976355882677</v>
+        <v>0.08181976355882706</v>
       </c>
       <c r="M48">
-        <v>626.1231120843926</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.08181976355882706</v>
+      </c>
+      <c r="N48">
+        <v>626.1231120843948</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>139.2050217803026</v>
+        <v>139.2050217803022</v>
       </c>
       <c r="B49">
-        <v>374896.6634950269</v>
+        <v>374896.6634950126</v>
       </c>
       <c r="C49">
-        <v>349.7356564891583</v>
+        <v>349.735656489145</v>
       </c>
       <c r="D49">
-        <v>26230.28069304084</v>
+        <v>26230.28069304089</v>
       </c>
       <c r="E49">
-        <v>8478.570004793677</v>
+        <v>8478.570004793712</v>
       </c>
       <c r="F49">
-        <v>7420.919591577616</v>
+        <v>7420.919591577652</v>
       </c>
       <c r="G49">
-        <v>7.182183110221379</v>
+        <v>7.182183110221382</v>
       </c>
       <c r="H49">
-        <v>25.71558943497599</v>
+        <v>25.71558943497593</v>
       </c>
       <c r="I49">
-        <v>2.805639730671582E-09</v>
+        <v>2.805639730671552E-09</v>
       </c>
       <c r="J49">
-        <v>2.804094874553389E-09</v>
+        <v>2.804094874553355E-09</v>
       </c>
       <c r="K49">
-        <v>0.0002756676580733223</v>
+        <v>0.0002756676580733247</v>
       </c>
       <c r="L49">
-        <v>0.0806626545780466</v>
+        <v>0.08066265457804696</v>
       </c>
       <c r="M49">
-        <v>619.4072226544821</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.08066265457804696</v>
+      </c>
+      <c r="N49">
+        <v>619.4072226544845</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>140.695775889566</v>
+        <v>140.6957758895656</v>
       </c>
       <c r="B50">
-        <v>408119.9349518975</v>
+        <v>408119.9349518908</v>
       </c>
       <c r="C50">
-        <v>378.5499281856791</v>
+        <v>378.5499281856737</v>
       </c>
       <c r="D50">
-        <v>26084.88600504625</v>
+        <v>26084.88600504629</v>
       </c>
       <c r="E50">
-        <v>8421.503707007672</v>
+        <v>8421.503707007676</v>
       </c>
       <c r="F50">
-        <v>7359.035658127196</v>
+        <v>7359.035658127204</v>
       </c>
       <c r="G50">
-        <v>7.116940758601854</v>
+        <v>7.116940758601889</v>
       </c>
       <c r="H50">
-        <v>25.88002667879725</v>
+        <v>25.88002667879723</v>
       </c>
       <c r="I50">
-        <v>2.903242574582947E-09</v>
+        <v>2.903242574582917E-09</v>
       </c>
       <c r="J50">
-        <v>2.918284412792832E-09</v>
+        <v>2.918284412792801E-09</v>
       </c>
       <c r="K50">
-        <v>0.0002679572888904811</v>
+        <v>0.0002679572888904832</v>
       </c>
       <c r="L50">
-        <v>0.07947921282587903</v>
+        <v>0.07947921282587933</v>
       </c>
       <c r="M50">
-        <v>612.6974842903154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.07947921282587933</v>
+      </c>
+      <c r="N50">
+        <v>612.6974842903173</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>142.1865299988294</v>
+        <v>142.1865299988289</v>
       </c>
       <c r="B51">
-        <v>443475.0064868605</v>
+        <v>443475.0064868521</v>
       </c>
       <c r="C51">
-        <v>409.1158523716888</v>
+        <v>409.1158523716818</v>
       </c>
       <c r="D51">
-        <v>25938.52427074369</v>
+        <v>25938.52427074373</v>
       </c>
       <c r="E51">
-        <v>8363.239228229706</v>
+        <v>8363.239228229719</v>
       </c>
       <c r="F51">
-        <v>7296.35246195321</v>
+        <v>7296.352461953223</v>
       </c>
       <c r="G51">
-        <v>7.054572857655091</v>
+        <v>7.054572857655072</v>
       </c>
       <c r="H51">
-        <v>26.07504200091696</v>
+        <v>26.07504200091688</v>
       </c>
       <c r="I51">
-        <v>3.006652345038033E-09</v>
+        <v>3.006652345038005E-09</v>
       </c>
       <c r="J51">
-        <v>3.03529772105291E-09</v>
+        <v>3.035297721052882E-09</v>
       </c>
       <c r="K51">
-        <v>0.0002605498416707205</v>
+        <v>0.0002605498416707224</v>
       </c>
       <c r="L51">
-        <v>0.07827913540409324</v>
+        <v>0.07827913540409354</v>
       </c>
       <c r="M51">
-        <v>605.9907860938267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.07827913540409354</v>
+      </c>
+      <c r="N51">
+        <v>605.9907860938289</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>143.6772841080927</v>
+        <v>143.6772841080923</v>
       </c>
       <c r="B52">
-        <v>481042.9048220144</v>
+        <v>481042.9048220039</v>
       </c>
       <c r="C52">
-        <v>441.5078380761403</v>
+        <v>441.5078380761314</v>
       </c>
       <c r="D52">
-        <v>25791.082825506</v>
+        <v>25791.08282550604</v>
       </c>
       <c r="E52">
-        <v>8303.709633086188</v>
+        <v>8303.709633086215</v>
       </c>
       <c r="F52">
-        <v>7232.815593064716</v>
+        <v>7232.815593064744</v>
       </c>
       <c r="G52">
-        <v>6.994581344109013</v>
+        <v>6.994581344109022</v>
       </c>
       <c r="H52">
-        <v>26.30005246285436</v>
+        <v>26.30005246285432</v>
       </c>
       <c r="I52">
-        <v>3.116324132257201E-09</v>
+        <v>3.116324132257166E-09</v>
       </c>
       <c r="J52">
-        <v>3.155138700595458E-09</v>
+        <v>3.155138700595422E-09</v>
       </c>
       <c r="K52">
-        <v>0.0002534215936787001</v>
+        <v>0.0002534215936787023</v>
       </c>
       <c r="L52">
-        <v>0.07707170824449647</v>
+        <v>0.07707170824449684</v>
       </c>
       <c r="M52">
-        <v>599.2837568312373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.07707170824449684</v>
+      </c>
+      <c r="N52">
+        <v>599.2837568312398</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>145.1680382173562</v>
+        <v>145.1680382173557</v>
       </c>
       <c r="B53">
-        <v>520905.2138761763</v>
+        <v>520905.2138761661</v>
       </c>
       <c r="C53">
-        <v>475.8032758126404</v>
+        <v>475.8032758126319</v>
       </c>
       <c r="D53">
-        <v>25642.44902761006</v>
+        <v>25642.44902761011</v>
       </c>
       <c r="E53">
-        <v>8242.848452046948</v>
+        <v>8242.848452046959</v>
       </c>
       <c r="F53">
-        <v>7168.371481120285</v>
+        <v>7168.3714811203</v>
       </c>
       <c r="G53">
-        <v>6.936541074618918</v>
+        <v>6.936541074618936</v>
       </c>
       <c r="H53">
-        <v>26.55466767804014</v>
+        <v>26.55466767804003</v>
       </c>
       <c r="I53">
-        <v>3.232757535478666E-09</v>
+        <v>3.232757535478628E-09</v>
       </c>
       <c r="J53">
-        <v>3.277821080013489E-09</v>
+        <v>3.277821080013452E-09</v>
       </c>
       <c r="K53">
-        <v>0.000246551351519213</v>
+        <v>0.0002465513515192149</v>
       </c>
       <c r="L53">
-        <v>0.0758653038198772</v>
+        <v>0.07586530381987755</v>
       </c>
       <c r="M53">
-        <v>592.5728409562206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.07586530381987755</v>
+      </c>
+      <c r="N53">
+        <v>592.5728409562224</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>146.6587923266195</v>
+        <v>146.6587923266191</v>
       </c>
       <c r="B54">
-        <v>563144.0359586197</v>
+        <v>563144.0359586095</v>
       </c>
       <c r="C54">
-        <v>512.0828225858634</v>
+        <v>512.0828225858551</v>
       </c>
       <c r="D54">
-        <v>25492.50987802354</v>
+        <v>25492.5098780236</v>
       </c>
       <c r="E54">
-        <v>8180.589284988388</v>
+        <v>8180.589284988411</v>
       </c>
       <c r="F54">
-        <v>7102.967050958378</v>
+        <v>7102.967050958405</v>
       </c>
       <c r="G54">
-        <v>6.880090744308829</v>
+        <v>6.88009074430882</v>
       </c>
       <c r="H54">
-        <v>26.83868067973131</v>
+        <v>26.83868067973121</v>
       </c>
       <c r="I54">
-        <v>3.356501880954022E-09</v>
+        <v>3.356501880953977E-09</v>
       </c>
       <c r="J54">
-        <v>3.403369541660016E-09</v>
+        <v>3.403369541659976E-09</v>
       </c>
       <c r="K54">
-        <v>0.0002399201783346225</v>
+        <v>0.0002399201783346248</v>
       </c>
       <c r="L54">
-        <v>0.07466699954100416</v>
+        <v>0.07466699954100452</v>
       </c>
       <c r="M54">
-        <v>585.8543627290961</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.07466699954100452</v>
+      </c>
+      <c r="N54">
+        <v>585.8543627290989</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>148.1495464358829</v>
+        <v>148.1495464358825</v>
       </c>
       <c r="B55">
-        <v>607841.9589817093</v>
+        <v>607841.9589816929</v>
       </c>
       <c r="C55">
-        <v>550.4307244667644</v>
+        <v>550.43072446675</v>
       </c>
       <c r="D55">
-        <v>25341.15164462152</v>
+        <v>25341.15164462158</v>
       </c>
       <c r="E55">
-        <v>8116.865402246389</v>
+        <v>8116.865402246414</v>
       </c>
       <c r="F55">
-        <v>7036.54938130471</v>
+        <v>7036.549381304736</v>
       </c>
       <c r="G55">
-        <v>6.824924939796492</v>
+        <v>6.824924939796521</v>
       </c>
       <c r="H55">
-        <v>27.15206103287643</v>
+        <v>27.15206103287629</v>
       </c>
       <c r="I55">
-        <v>3.488162154287263E-09</v>
+        <v>3.488162154287216E-09</v>
       </c>
       <c r="J55">
-        <v>3.531820794716846E-09</v>
+        <v>3.531820794716802E-09</v>
       </c>
       <c r="K55">
-        <v>0.0002335111499867149</v>
+        <v>0.0002335111499867171</v>
       </c>
       <c r="L55">
-        <v>0.0734823521745876</v>
+        <v>0.07348235217458798</v>
       </c>
       <c r="M55">
-        <v>579.1245797390904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.07348235217458798</v>
+      </c>
+      <c r="N55">
+        <v>579.1245797390924</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>149.6403005451463</v>
+        <v>149.6403005451459</v>
       </c>
       <c r="B56">
-        <v>655082.0303105999</v>
+        <v>655082.0303105845</v>
       </c>
       <c r="C56">
-        <v>590.9351822070461</v>
+        <v>590.9351822070327</v>
       </c>
       <c r="D56">
-        <v>25188.25948907725</v>
+        <v>25188.25948907729</v>
       </c>
       <c r="E56">
-        <v>8051.609338543473</v>
+        <v>8051.609338543481</v>
       </c>
       <c r="F56">
-        <v>6969.065362447041</v>
+        <v>6969.06536244705</v>
       </c>
       <c r="G56">
-        <v>6.770787211991864</v>
+        <v>6.770787211991901</v>
       </c>
       <c r="H56">
-        <v>27.4949501141439</v>
+        <v>27.49495011414381</v>
       </c>
       <c r="I56">
-        <v>3.628405761003776E-09</v>
+        <v>3.628405761003732E-09</v>
       </c>
       <c r="J56">
-        <v>3.6632246011961E-09</v>
+        <v>3.66322460119606E-09</v>
       </c>
       <c r="K56">
-        <v>0.0002273091355977244</v>
+        <v>0.0002273091355977264</v>
       </c>
       <c r="L56">
-        <v>0.07231533216106577</v>
+        <v>0.07231533216106616</v>
       </c>
       <c r="M56">
-        <v>572.3797270820484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.07231533216106616</v>
+      </c>
+      <c r="N56">
+        <v>572.3797270820503</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>151.1310546544097</v>
+        <v>151.1310546544092</v>
       </c>
       <c r="B57">
-        <v>704947.7379459039</v>
+        <v>704947.7379458918</v>
       </c>
       <c r="C57">
-        <v>633.68876625633</v>
+        <v>633.6887662563203</v>
       </c>
       <c r="D57">
-        <v>25033.71709471462</v>
+        <v>25033.71709471467</v>
       </c>
       <c r="E57">
-        <v>7984.752475172786</v>
+        <v>7984.752475172799</v>
       </c>
       <c r="F57">
-        <v>6900.461348667111</v>
+        <v>6900.461348667127</v>
       </c>
       <c r="G57">
-        <v>6.717464062637749</v>
+        <v>6.717464062637787</v>
       </c>
       <c r="H57">
-        <v>27.86765851713336</v>
+        <v>27.86765851713327</v>
       </c>
       <c r="I57">
-        <v>3.777970250186964E-09</v>
+        <v>3.777970250186911E-09</v>
       </c>
       <c r="J57">
-        <v>3.797644763040232E-09</v>
+        <v>3.797644763040188E-09</v>
       </c>
       <c r="K57">
-        <v>0.0002213005988719967</v>
+        <v>0.0002213005988719987</v>
       </c>
       <c r="L57">
-        <v>0.07116839523534274</v>
+        <v>0.0711683952353431</v>
       </c>
       <c r="M57">
-        <v>565.6160533599639</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.0711683952353431</v>
+      </c>
+      <c r="N57">
+        <v>565.6160533599661</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>152.6218087636731</v>
+        <v>152.6218087636726</v>
       </c>
       <c r="B58">
-        <v>757522.9998219872</v>
+        <v>757522.9998219672</v>
       </c>
       <c r="C58">
-        <v>678.7888885712646</v>
+        <v>678.788888571247</v>
       </c>
       <c r="D58">
-        <v>24877.4062936296</v>
+        <v>24877.40629362965</v>
       </c>
       <c r="E58">
-        <v>7916.22460578881</v>
+        <v>7916.224605788839</v>
       </c>
       <c r="F58">
-        <v>6830.682801179792</v>
+        <v>6830.682801179817</v>
       </c>
       <c r="G58">
-        <v>6.664779747419525</v>
+        <v>6.664779747419511</v>
       </c>
       <c r="H58">
-        <v>28.27066557636461</v>
+        <v>28.27066557636448</v>
       </c>
       <c r="I58">
-        <v>3.937672161443716E-09</v>
+        <v>3.937672161443672E-09</v>
       </c>
       <c r="J58">
-        <v>3.935160080003072E-09</v>
+        <v>3.935160080003029E-09</v>
       </c>
       <c r="K58">
-        <v>0.0002154734174393192</v>
+        <v>0.0002154734174393212</v>
       </c>
       <c r="L58">
-        <v>0.07004265294111989</v>
+        <v>0.07004265294112023</v>
       </c>
       <c r="M58">
-        <v>558.8298495642989</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.07004265294112023</v>
+      </c>
+      <c r="N58">
+        <v>558.829849564301</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>154.1125628729365</v>
+        <v>154.112562872936</v>
       </c>
       <c r="B59">
-        <v>812892.162099733</v>
+        <v>812892.1620997137</v>
       </c>
       <c r="C59">
-        <v>726.3383397845494</v>
+        <v>726.3383397845325</v>
       </c>
       <c r="D59">
-        <v>24719.20669138056</v>
+        <v>24719.20669138061</v>
       </c>
       <c r="E59">
-        <v>7845.953481088241</v>
+        <v>7845.95348108828</v>
       </c>
       <c r="F59">
-        <v>6759.673917247999</v>
+        <v>6759.67391724804</v>
       </c>
       <c r="G59">
-        <v>6.612591807212695</v>
+        <v>6.612591807212729</v>
       </c>
       <c r="H59">
-        <v>28.70462104490872</v>
+        <v>28.70462104490858</v>
       </c>
       <c r="I59">
-        <v>4.108417186450013E-09</v>
+        <v>4.108417186449951E-09</v>
       </c>
       <c r="J59">
-        <v>4.075865289212221E-09</v>
+        <v>4.075865289212178E-09</v>
       </c>
       <c r="K59">
-        <v>0.0002098167180975139</v>
+        <v>0.0002098167180975158</v>
       </c>
       <c r="L59">
-        <v>0.06893809942771664</v>
+        <v>0.06893809942771703</v>
       </c>
       <c r="M59">
-        <v>552.017471792704</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.06893809942771703</v>
+      </c>
+      <c r="N59">
+        <v>552.0174717927064</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>155.6033169821999</v>
+        <v>155.6033169821994</v>
       </c>
       <c r="B60">
-        <v>871140.0074378038</v>
+        <v>871140.0074378013</v>
       </c>
       <c r="C60">
-        <v>776.445901656361</v>
+        <v>776.4459016563619</v>
       </c>
       <c r="D60">
-        <v>24558.99528750576</v>
+        <v>24558.99528750582</v>
       </c>
       <c r="E60">
-        <v>7773.864327565637</v>
+        <v>7773.864327565655</v>
       </c>
       <c r="F60">
-        <v>6687.377241017551</v>
+        <v>6687.377241017578</v>
       </c>
       <c r="G60">
-        <v>6.560787247562772</v>
+        <v>6.560787247562812</v>
       </c>
       <c r="H60">
-        <v>29.17034900792518</v>
+        <v>29.17034900792499</v>
       </c>
       <c r="I60">
-        <v>4.29121187429327E-09</v>
+        <v>4.291211874293184E-09</v>
       </c>
       <c r="J60">
-        <v>4.219871998301389E-09</v>
+        <v>4.219871998301333E-09</v>
       </c>
       <c r="K60">
-        <v>0.000204320726322214</v>
+        <v>0.0002043207263222162</v>
       </c>
       <c r="L60">
-        <v>0.06785385669746338</v>
+        <v>0.06785385669746381</v>
       </c>
       <c r="M60">
-        <v>545.1753586340178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.06785385669746381</v>
+      </c>
+      <c r="N60">
+        <v>545.1753586340211</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>157.0940710914632</v>
+        <v>157.0940710914628</v>
       </c>
       <c r="B61">
-        <v>932351.774339065</v>
+        <v>932351.7743390343</v>
       </c>
       <c r="C61">
-        <v>829.2270462862932</v>
+        <v>829.2270462862648</v>
       </c>
       <c r="D61">
-        <v>24396.64609004237</v>
+        <v>24396.64609004241</v>
       </c>
       <c r="E61">
-        <v>7699.879335392766</v>
+        <v>7699.879335392789</v>
       </c>
       <c r="F61">
-        <v>6613.733251442856</v>
+        <v>6613.733251442874</v>
       </c>
       <c r="G61">
-        <v>6.509279294609213</v>
+        <v>6.509279294609253</v>
       </c>
       <c r="H61">
-        <v>29.66885416964655</v>
+        <v>29.66885416964644</v>
       </c>
       <c r="I61">
-        <v>4.487177156574147E-09</v>
+        <v>4.487177156574089E-09</v>
       </c>
       <c r="J61">
-        <v>4.367309624834866E-09</v>
+        <v>4.36730962483482E-09</v>
       </c>
       <c r="K61">
-        <v>0.0001989766287861643</v>
+        <v>0.0001989766287861657</v>
       </c>
       <c r="L61">
-        <v>0.06678841013458756</v>
+        <v>0.0667884101345879</v>
       </c>
       <c r="M61">
-        <v>538.3000439444655</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.0667884101345879</v>
+      </c>
+      <c r="N61">
+        <v>538.3000439444673</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>158.5848252007266</v>
+        <v>158.5848252007261</v>
       </c>
       <c r="B62">
-        <v>996613.1887881368</v>
+        <v>996613.1887881113</v>
       </c>
       <c r="C62">
-        <v>884.8047353511852</v>
+        <v>884.8047353511625</v>
       </c>
       <c r="D62">
-        <v>24232.02972208027</v>
+        <v>24232.02972208033</v>
       </c>
       <c r="E62">
-        <v>7623.917110296754</v>
+        <v>7623.917110296769</v>
       </c>
       <c r="F62">
-        <v>6538.679922448018</v>
+        <v>6538.679922448034</v>
       </c>
       <c r="G62">
-        <v>6.458004663345552</v>
+        <v>6.458004663345572</v>
       </c>
       <c r="H62">
-        <v>30.20133071697927</v>
+        <v>30.2013307169791</v>
       </c>
       <c r="I62">
-        <v>4.697564026102599E-09</v>
+        <v>4.697564026102528E-09</v>
       </c>
       <c r="J62">
-        <v>4.518326355506824E-09</v>
+        <v>4.518326355506773E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001937764479132472</v>
+        <v>0.000193776447913249</v>
       </c>
       <c r="L62">
-        <v>0.06573981693414037</v>
+        <v>0.06573981693414073</v>
       </c>
       <c r="M62">
-        <v>531.388165630774</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.06573981693414073</v>
+      </c>
+      <c r="N62">
+        <v>531.3881656307764</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>160.07557930999</v>
+        <v>160.0755793099895</v>
       </c>
       <c r="B63">
-        <v>1064010.509520959</v>
+        <v>1064010.509520941</v>
       </c>
       <c r="C63">
-        <v>943.3103346878867</v>
+        <v>943.3103346878731</v>
       </c>
       <c r="D63">
-        <v>24065.01301817217</v>
+        <v>24065.01301817223</v>
       </c>
       <c r="E63">
-        <v>7545.892084098886</v>
+        <v>7545.892084098902</v>
       </c>
       <c r="F63">
-        <v>6462.152250184003</v>
+        <v>6462.15225018402</v>
       </c>
       <c r="G63">
-        <v>6.406921281281511</v>
+        <v>6.406921281281565</v>
       </c>
       <c r="H63">
-        <v>30.76917404197705</v>
+        <v>30.76917404197695</v>
       </c>
       <c r="I63">
-        <v>4.923771775066836E-09</v>
+        <v>4.923771775066775E-09</v>
       </c>
       <c r="J63">
-        <v>4.673090139366745E-09</v>
+        <v>4.673090139366693E-09</v>
       </c>
       <c r="K63">
-        <v>0.0001887129277034689</v>
+        <v>0.0001887129277034705</v>
       </c>
       <c r="L63">
-        <v>0.06470587946450271</v>
+        <v>0.06470587946450301</v>
       </c>
       <c r="M63">
-        <v>524.4364709552857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.06470587946450301</v>
+      </c>
+      <c r="N63">
+        <v>524.4364709552872</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>161.5663334192534</v>
+        <v>161.5663334192529</v>
       </c>
       <c r="B64">
-        <v>1134630.588392716</v>
+        <v>1134630.588392709</v>
       </c>
       <c r="C64">
-        <v>1004.884661895111</v>
+        <v>1004.884661895109</v>
       </c>
       <c r="D64">
-        <v>23895.45860811196</v>
+        <v>23895.45860811203</v>
       </c>
       <c r="E64">
-        <v>7465.713878321549</v>
+        <v>7465.71387832157</v>
       </c>
       <c r="F64">
-        <v>6384.08174189258</v>
+        <v>6384.081741892604</v>
       </c>
       <c r="G64">
-        <v>6.356006417224103</v>
+        <v>6.356006417224076</v>
       </c>
       <c r="H64">
-        <v>31.37399570214185</v>
+        <v>31.37399570214157</v>
       </c>
       <c r="I64">
-        <v>5.167369288773376E-09</v>
+        <v>5.167369288773281E-09</v>
       </c>
       <c r="J64">
-        <v>4.831789730189887E-09</v>
+        <v>4.831789730189829E-09</v>
       </c>
       <c r="K64">
-        <v>0.0001837794302197986</v>
+        <v>0.0001837794302198004</v>
       </c>
       <c r="L64">
-        <v>0.06368428250925473</v>
+        <v>0.06368428250925508</v>
       </c>
       <c r="M64">
-        <v>517.4418187844259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.06368428250925508</v>
+      </c>
+      <c r="N64">
+        <v>517.4418187844288</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>163.0570875285168</v>
+        <v>163.0570875285163</v>
       </c>
       <c r="B65">
-        <v>1208560.947435543</v>
+        <v>1208560.947435519</v>
       </c>
       <c r="C65">
-        <v>1069.679187328002</v>
+        <v>1069.679187327982</v>
       </c>
       <c r="D65">
-        <v>23723.22448516019</v>
+        <v>23723.22448516025</v>
       </c>
       <c r="E65">
-        <v>7383.286614980416</v>
+        <v>7383.286614980434</v>
       </c>
       <c r="F65">
-        <v>6304.395860470617</v>
+        <v>6304.395860470635</v>
       </c>
       <c r="G65">
-        <v>6.305255171006941</v>
+        <v>6.305255171006952</v>
       </c>
       <c r="H65">
-        <v>32.01764211714023</v>
+        <v>32.01764211713996</v>
       </c>
       <c r="I65">
-        <v>5.430120004714886E-09</v>
+        <v>5.430120004714785E-09</v>
       </c>
       <c r="J65">
-        <v>4.994635794170015E-09</v>
+        <v>4.994635794169955E-09</v>
       </c>
       <c r="K65">
-        <v>0.0001789698422385754</v>
+        <v>0.0001789698422385772</v>
       </c>
       <c r="L65">
-        <v>0.06267269763103583</v>
+        <v>0.06267269763103618</v>
       </c>
       <c r="M65">
-        <v>510.4011791155834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.06267269763103618</v>
+      </c>
+      <c r="N65">
+        <v>510.4011791155859</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>164.5478416377802</v>
+        <v>164.5478416377797</v>
       </c>
       <c r="B66">
-        <v>1285889.874314081</v>
+        <v>1285889.87431406</v>
       </c>
       <c r="C66">
-        <v>1137.857411940104</v>
+        <v>1137.857411940087</v>
       </c>
       <c r="D66">
-        <v>23548.16355519539</v>
+        <v>23548.16355519545</v>
       </c>
       <c r="E66">
-        <v>7298.508168358614</v>
+        <v>7298.50816835863</v>
       </c>
       <c r="F66">
-        <v>6223.017418336764</v>
+        <v>6223.01741833678</v>
       </c>
       <c r="G66">
-        <v>6.254679285594678</v>
+        <v>6.254679285594667</v>
       </c>
       <c r="H66">
-        <v>32.70221765016075</v>
+        <v>32.70221765016044</v>
       </c>
       <c r="I66">
-        <v>5.714011290825007E-09</v>
+        <v>5.714011290824908E-09</v>
       </c>
       <c r="J66">
-        <v>5.161862100470362E-09</v>
+        <v>5.161862100470301E-09</v>
       </c>
       <c r="K66">
-        <v>0.0001742784916417964</v>
+        <v>0.0001742784916417979</v>
       </c>
       <c r="L66">
-        <v>0.06166886002606489</v>
+        <v>0.0616688600260652</v>
       </c>
       <c r="M66">
-        <v>503.3116301379839</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.0616688600260652</v>
+      </c>
+      <c r="N66">
+        <v>503.3116301379864</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>166.0385957470436</v>
+        <v>166.038595747043</v>
       </c>
       <c r="B67">
-        <v>1366706.537987364</v>
+        <v>1366706.537987354</v>
       </c>
       <c r="C67">
-        <v>1209.596448924769</v>
+        <v>1209.596448924765</v>
       </c>
       <c r="D67">
-        <v>23370.12316245304</v>
+        <v>23370.12316245311</v>
       </c>
       <c r="E67">
-        <v>7211.269351233063</v>
+        <v>7211.269351233089</v>
       </c>
       <c r="F67">
-        <v>6139.863913644541</v>
+        <v>6139.863913644569</v>
       </c>
       <c r="G67">
-        <v>6.204306248064696</v>
+        <v>6.204306248064706</v>
       </c>
       <c r="H67">
-        <v>33.43011291094968</v>
+        <v>33.43011291094941</v>
       </c>
       <c r="I67">
-        <v>6.021289180667213E-09</v>
+        <v>6.021289180667096E-09</v>
       </c>
       <c r="J67">
-        <v>5.333726813951294E-09</v>
+        <v>5.333726813951231E-09</v>
       </c>
       <c r="K67">
-        <v>0.0001697000731797507</v>
+        <v>0.0001697000731797522</v>
       </c>
       <c r="L67">
-        <v>0.06067062382374108</v>
+        <v>0.06067062382374146</v>
       </c>
       <c r="M67">
-        <v>496.1703530106861</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.06067062382374146</v>
+      </c>
+      <c r="N67">
+        <v>496.1703530106889</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>167.529349856307</v>
+        <v>167.5293498563064</v>
       </c>
       <c r="B68">
-        <v>1451101.12645791</v>
+        <v>1451101.126457863</v>
       </c>
       <c r="C68">
-        <v>1285.088840042602</v>
+        <v>1285.088840042556</v>
       </c>
       <c r="D68">
-        <v>23188.94458641184</v>
+        <v>23188.94458641192</v>
       </c>
       <c r="E68">
-        <v>7121.453028724805</v>
+        <v>7121.453028724856</v>
       </c>
       <c r="F68">
-        <v>6054.846801271457</v>
+        <v>6054.846801271504</v>
       </c>
       <c r="G68">
-        <v>6.154178650569095</v>
+        <v>6.154178650569081</v>
       </c>
       <c r="H68">
-        <v>34.20403935773358</v>
+        <v>34.20403935773321</v>
       </c>
       <c r="I68">
-        <v>6.354499639555987E-09</v>
+        <v>6.35449963955585E-09</v>
       </c>
       <c r="J68">
-        <v>5.510513911753817E-09</v>
+        <v>5.51051391175375E-09</v>
       </c>
       <c r="K68">
-        <v>0.0001652295832620252</v>
+        <v>0.0001652295832620268</v>
       </c>
       <c r="L68">
-        <v>0.05967600142396298</v>
+        <v>0.05967600142396336</v>
       </c>
       <c r="M68">
-        <v>488.9746244747946</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.05967600142396336</v>
+      </c>
+      <c r="N68">
+        <v>488.9746244747976</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>169.0201039655703</v>
+        <v>169.0201039655698</v>
       </c>
       <c r="B69">
-        <v>1539165.008512943</v>
+        <v>1539165.008512913</v>
       </c>
       <c r="C69">
-        <v>1364.544641881974</v>
+        <v>1364.544641881948</v>
       </c>
       <c r="D69">
-        <v>23004.46250291107</v>
+        <v>23004.46250291115</v>
       </c>
       <c r="E69">
-        <v>7028.933152742174</v>
+        <v>7028.933152742186</v>
       </c>
       <c r="F69">
-        <v>5967.870690375888</v>
+        <v>5967.870690375898</v>
       </c>
       <c r="G69">
-        <v>6.104353786522061</v>
+        <v>6.104353786522116</v>
       </c>
       <c r="H69">
-        <v>35.02707158288455</v>
+        <v>35.0270715828843</v>
       </c>
       <c r="I69">
-        <v>6.716537841261962E-09</v>
+        <v>6.716537841261818E-09</v>
       </c>
       <c r="J69">
-        <v>5.692534748548223E-09</v>
+        <v>5.692534748548147E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001608622634483235</v>
+        <v>0.0001608622634483253</v>
       </c>
       <c r="L69">
-        <v>0.05868319161421947</v>
+        <v>0.05868319161421987</v>
       </c>
       <c r="M69">
-        <v>481.7218073573872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.05868319161421987</v>
+      </c>
+      <c r="N69">
+        <v>481.7218073573898</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>170.5108580748337</v>
+        <v>170.5108580748332</v>
       </c>
       <c r="B70">
-        <v>1630990.921315122</v>
+        <v>1630990.921315084</v>
       </c>
       <c r="C70">
-        <v>1448.193822028186</v>
+        <v>1448.19382202815</v>
       </c>
       <c r="D70">
-        <v>22816.50440061968</v>
+        <v>22816.50440061976</v>
       </c>
       <c r="E70">
-        <v>6933.573709984758</v>
+        <v>6933.5737099848</v>
       </c>
       <c r="F70">
-        <v>5878.832459711644</v>
+        <v>5878.832459711681</v>
       </c>
       <c r="G70">
-        <v>6.05490346097161</v>
+        <v>6.054903460971623</v>
       </c>
       <c r="H70">
-        <v>35.90269906382292</v>
+        <v>35.90269906382243</v>
       </c>
       <c r="I70">
-        <v>7.110707333263723E-09</v>
+        <v>7.11070733326354E-09</v>
       </c>
       <c r="J70">
-        <v>5.880129799408046E-09</v>
+        <v>5.88012979940797E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001565935523109042</v>
+        <v>0.0001565935523109061</v>
       </c>
       <c r="L70">
-        <v>0.05769060017857885</v>
+        <v>0.05769060017857931</v>
       </c>
       <c r="M70">
-        <v>474.4093389715848</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.05769060017857931</v>
+      </c>
+      <c r="N70">
+        <v>474.4093389715879</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>172.0016121840971</v>
+        <v>172.0016121840966</v>
       </c>
       <c r="B71">
-        <v>1726673.185535753</v>
+        <v>1726673.185535688</v>
       </c>
       <c r="C71">
-        <v>1536.289010053339</v>
+        <v>1536.289010053271</v>
       </c>
       <c r="D71">
-        <v>22624.88994137813</v>
+        <v>22624.8899413782</v>
       </c>
       <c r="E71">
-        <v>6835.227576851235</v>
+        <v>6835.227576851295</v>
       </c>
       <c r="F71">
-        <v>5787.620281431488</v>
+        <v>5787.620281431539</v>
       </c>
       <c r="G71">
-        <v>6.005913997470376</v>
+        <v>6.005913997470437</v>
       </c>
       <c r="H71">
-        <v>36.83488967530916</v>
+        <v>36.83488967530886</v>
       </c>
       <c r="I71">
-        <v>7.540791491484855E-09</v>
+        <v>7.540791491484686E-09</v>
       </c>
       <c r="J71">
-        <v>6.073670614764055E-09</v>
+        <v>6.073670614763981E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001524190453296326</v>
+        <v>0.0001524190453296342</v>
       </c>
       <c r="L71">
-        <v>0.05669685568552397</v>
+        <v>0.05669685568552438</v>
       </c>
       <c r="M71">
-        <v>467.0347173704775</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.05669685568552438</v>
+      </c>
+      <c r="N71">
+        <v>467.0347173704801</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>173.4923662933605</v>
+        <v>173.49236629336</v>
       </c>
       <c r="B72">
-        <v>1826307.949392789</v>
+        <v>1826307.949392773</v>
       </c>
       <c r="C72">
-        <v>1629.108653087526</v>
+        <v>1629.108653087517</v>
       </c>
       <c r="D72">
-        <v>22429.43024950457</v>
+        <v>22429.43024950465</v>
       </c>
       <c r="E72">
-        <v>6733.73527560546</v>
+        <v>6733.735275605481</v>
       </c>
       <c r="F72">
-        <v>5694.112543966651</v>
+        <v>5694.11254396667</v>
       </c>
       <c r="G72">
-        <v>5.957486426780075</v>
+        <v>5.957486426780077</v>
       </c>
       <c r="H72">
-        <v>37.82816793130536</v>
+        <v>37.82816793130497</v>
       </c>
       <c r="I72">
-        <v>8.011140357503712E-09</v>
+        <v>8.011140357503533E-09</v>
       </c>
       <c r="J72">
-        <v>6.273562029166245E-09</v>
+        <v>6.273562029166171E-09</v>
       </c>
       <c r="K72">
-        <v>0.000148334462459263</v>
+        <v>0.0001483344624592645</v>
       </c>
       <c r="L72">
-        <v>0.05570082221560475</v>
+        <v>0.05570082221560511</v>
       </c>
       <c r="M72">
-        <v>459.5954853728494</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.05570082221560511</v>
+      </c>
+      <c r="N72">
+        <v>459.5954853728521</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>174.9831204026239</v>
+        <v>174.9831204026233</v>
       </c>
       <c r="B73">
-        <v>1929993.462367045</v>
+        <v>1929993.462366987</v>
       </c>
       <c r="C73">
-        <v>1726.960629933508</v>
+        <v>1726.960629933448</v>
       </c>
       <c r="D73">
-        <v>22229.92711064484</v>
+        <v>22229.92711064492</v>
       </c>
       <c r="E73">
-        <v>6628.923628213261</v>
+        <v>6628.92362821332</v>
       </c>
       <c r="F73">
-        <v>5598.176665028108</v>
+        <v>5598.176665028159</v>
       </c>
       <c r="G73">
-        <v>5.909736845542459</v>
+        <v>5.909736845542423</v>
       </c>
       <c r="H73">
-        <v>38.88771180806305</v>
+        <v>38.88771180806256</v>
       </c>
       <c r="I73">
-        <v>8.526776874529093E-09</v>
+        <v>8.52677687452888E-09</v>
       </c>
       <c r="J73">
-        <v>6.48024467520841E-09</v>
+        <v>6.480244675208332E-09</v>
       </c>
       <c r="K73">
-        <v>0.0001443356229760588</v>
+        <v>0.0001443356229760603</v>
       </c>
       <c r="L73">
-        <v>0.05470161000097207</v>
+        <v>0.05470161000097245</v>
       </c>
       <c r="M73">
-        <v>452.0892122455604</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.05470161000097245</v>
+      </c>
+      <c r="N73">
+        <v>452.0892122455638</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>176.4738745118873</v>
+        <v>176.4738745118867</v>
       </c>
       <c r="B74">
-        <v>2037830.37840968</v>
+        <v>2037830.378409656</v>
       </c>
       <c r="C74">
-        <v>1830.186380315666</v>
+        <v>1830.186380315648</v>
       </c>
       <c r="D74">
-        <v>22026.17205481527</v>
+        <v>22026.17205481537</v>
       </c>
       <c r="E74">
-        <v>6520.604307956498</v>
+        <v>6520.604307956521</v>
       </c>
       <c r="F74">
-        <v>5499.667787267658</v>
+        <v>5499.667787267683</v>
       </c>
       <c r="G74">
-        <v>5.862796935687515</v>
+        <v>5.862796935687507</v>
       </c>
       <c r="H74">
-        <v>40.01947317009285</v>
+        <v>40.01947317009238</v>
       </c>
       <c r="I74">
-        <v>9.09352778094003E-09</v>
+        <v>9.093527780939762E-09</v>
       </c>
       <c r="J74">
-        <v>6.694197866727646E-09</v>
+        <v>6.694197866727549E-09</v>
       </c>
       <c r="K74">
-        <v>0.000140418427165283</v>
+        <v>0.0001404184271652848</v>
       </c>
       <c r="L74">
-        <v>0.05369858430367143</v>
+        <v>0.05369858430367189</v>
       </c>
       <c r="M74">
-        <v>444.513472901013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.05369858430367189</v>
+      </c>
+      <c r="N74">
+        <v>444.5134729010169</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>177.9646286211507</v>
+        <v>177.9646286211501</v>
       </c>
       <c r="B75">
-        <v>2149922.086947868</v>
+        <v>2149922.086947828</v>
       </c>
       <c r="C75">
-        <v>1939.165605380607</v>
+        <v>1939.16560538057</v>
       </c>
       <c r="D75">
-        <v>21817.94529049132</v>
+        <v>21817.94529049141</v>
       </c>
       <c r="E75">
-        <v>6408.572295129817</v>
+        <v>6408.572295129864</v>
       </c>
       <c r="F75">
-        <v>5398.42735232848</v>
+        <v>5398.427352328529</v>
       </c>
       <c r="G75">
-        <v>5.816814638005449</v>
+        <v>5.816814638005491</v>
       </c>
       <c r="H75">
-        <v>41.23032838277513</v>
+        <v>41.23032838277449</v>
       </c>
       <c r="I75">
-        <v>9.718186107555707E-09</v>
+        <v>9.718186107555375E-09</v>
       </c>
       <c r="J75">
-        <v>6.915942932334131E-09</v>
+        <v>6.915942932334036E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001365788443491569</v>
+        <v>0.0001365788443491587</v>
       </c>
       <c r="L75">
-        <v>0.05269137235052222</v>
+        <v>0.05269137235052269</v>
       </c>
       <c r="M75">
-        <v>436.8658244467968</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.05269137235052269</v>
+      </c>
+      <c r="N75">
+        <v>436.8658244468006</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>179.4553827304141</v>
+        <v>179.4553827304134</v>
       </c>
       <c r="B76">
-        <v>2266375.06769576</v>
+        <v>2266375.067695696</v>
       </c>
       <c r="C76">
-        <v>2054.321589564156</v>
+        <v>2054.321589564087</v>
       </c>
       <c r="D76">
-        <v>21605.01444632545</v>
+        <v>21605.01444632554</v>
       </c>
       <c r="E76">
-        <v>6292.60425306703</v>
+        <v>6292.604253067106</v>
       </c>
       <c r="F76">
-        <v>5294.281554892809</v>
+        <v>5294.281554892874</v>
       </c>
       <c r="G76">
-        <v>5.771954976168978</v>
+        <v>5.771954976168958</v>
       </c>
       <c r="H76">
-        <v>42.52826780024996</v>
+        <v>42.52826780024949</v>
       </c>
       <c r="I76">
-        <v>1.040871453873349E-08</v>
+        <v>1.040871453873323E-08</v>
       </c>
       <c r="J76">
-        <v>7.146047102897544E-09</v>
+        <v>7.146047102897449E-09</v>
       </c>
       <c r="K76">
-        <v>0.000132812906671735</v>
+        <v>0.0001328129066717365</v>
       </c>
       <c r="L76">
-        <v>0.05167986775775112</v>
+        <v>0.05167986775775149</v>
       </c>
       <c r="M76">
-        <v>429.1437799050954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.05167986775775149</v>
+      </c>
+      <c r="N76">
+        <v>429.1437799050986</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>180.9461368396775</v>
+        <v>180.9461368396768</v>
       </c>
       <c r="B77">
-        <v>2387299.261849344</v>
+        <v>2387299.261849252</v>
       </c>
       <c r="C77">
-        <v>2176.127178676421</v>
+        <v>2176.127178676312</v>
       </c>
       <c r="D77">
-        <v>21387.13306349249</v>
+        <v>21387.13306349257</v>
       </c>
       <c r="E77">
-        <v>6172.456856116828</v>
+        <v>6172.456856116894</v>
       </c>
       <c r="F77">
-        <v>5187.039688306184</v>
+        <v>5187.039688306235</v>
       </c>
       <c r="G77">
-        <v>5.728401030852466</v>
+        <v>5.728401030852488</v>
       </c>
       <c r="H77">
-        <v>43.92263568305447</v>
+        <v>43.92263568305383</v>
       </c>
       <c r="I77">
-        <v>1.117450210390647E-08</v>
+        <v>1.117450210390616E-08</v>
       </c>
       <c r="J77">
-        <v>7.38512808681898E-09</v>
+        <v>7.385128086818884E-09</v>
       </c>
       <c r="K77">
-        <v>0.0001291167079461678</v>
+        <v>0.0001291167079461691</v>
       </c>
       <c r="L77">
-        <v>0.05066423160740161</v>
+        <v>0.05066423160740199</v>
       </c>
       <c r="M77">
-        <v>421.3447788949237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.05066423160740199</v>
+      </c>
+      <c r="N77">
+        <v>421.3447788949263</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>182.4368909489409</v>
+        <v>182.4368909489402</v>
       </c>
       <c r="B78">
-        <v>2512808.447202334</v>
+        <v>2512808.447202257</v>
       </c>
       <c r="C78">
-        <v>2305.111418902497</v>
+        <v>2305.111418902409</v>
       </c>
       <c r="D78">
-        <v>21164.03876356942</v>
+        <v>21164.0387635695</v>
       </c>
       <c r="E78">
-        <v>6047.865124257527</v>
+        <v>6047.865124257596</v>
       </c>
       <c r="F78">
-        <v>5076.492409407874</v>
+        <v>5076.492409407928</v>
       </c>
       <c r="G78">
-        <v>5.68635506791881</v>
+        <v>5.686355067918837</v>
       </c>
       <c r="H78">
-        <v>45.42443604803385</v>
+        <v>45.42443604803334</v>
       </c>
       <c r="I78">
-        <v>1.202669116017697E-08</v>
+        <v>1.202669116017667E-08</v>
       </c>
       <c r="J78">
-        <v>7.633859507567601E-09</v>
+        <v>7.633859507567504E-09</v>
       </c>
       <c r="K78">
-        <v>0.0001254864067222904</v>
+        <v>0.0001254864067222917</v>
       </c>
       <c r="L78">
-        <v>0.04964488917138783</v>
+        <v>0.04964488917138819</v>
       </c>
       <c r="M78">
-        <v>413.4661550274752</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.04964488917138819</v>
+      </c>
+      <c r="N78">
+        <v>413.4661550274777</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>183.9276450582042</v>
+        <v>183.9276450582036</v>
       </c>
       <c r="B79">
-        <v>2643020.597433035</v>
+        <v>2643020.597432962</v>
       </c>
       <c r="C79">
-        <v>2441.866808219749</v>
+        <v>2441.866808219666</v>
       </c>
       <c r="D79">
-        <v>20935.45099253938</v>
+        <v>20935.4509925395</v>
       </c>
       <c r="E79">
-        <v>5918.540852604033</v>
+        <v>5918.540852604114</v>
       </c>
       <c r="F79">
-        <v>4962.409974945697</v>
+        <v>4962.40997494577</v>
       </c>
       <c r="G79">
-        <v>5.646039830558515</v>
+        <v>5.646039830558514</v>
       </c>
       <c r="H79">
-        <v>47.04672546437268</v>
+        <v>47.04672546437178</v>
       </c>
       <c r="I79">
-        <v>1.297859800321203E-08</v>
+        <v>1.297859800321152E-08</v>
       </c>
       <c r="J79">
-        <v>7.89297743308747E-09</v>
+        <v>7.892977433087346E-09</v>
       </c>
       <c r="K79">
-        <v>0.0001219182325370049</v>
+        <v>0.0001219182325370066</v>
       </c>
       <c r="L79">
-        <v>0.04862252121094564</v>
+        <v>0.04862252121094615</v>
       </c>
       <c r="M79">
-        <v>405.5050996810392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.04862252121094615</v>
+      </c>
+      <c r="N79">
+        <v>405.5050996810435</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>185.4183991674676</v>
+        <v>185.418399167467</v>
       </c>
       <c r="B80">
-        <v>2778058.195426729</v>
+        <v>2778058.195426664</v>
       </c>
       <c r="C80">
-        <v>2587.057024140021</v>
+        <v>2587.05702413995</v>
       </c>
       <c r="D80">
-        <v>20701.06820842571</v>
+        <v>20701.06820842581</v>
       </c>
       <c r="E80">
-        <v>5784.171271236907</v>
+        <v>5784.171271236973</v>
       </c>
       <c r="F80">
-        <v>4844.540538642969</v>
+        <v>4844.540538643022</v>
       </c>
       <c r="G80">
-        <v>5.607700013800253</v>
+        <v>5.607700013800273</v>
       </c>
       <c r="H80">
-        <v>48.80512161775678</v>
+        <v>48.80512161775632</v>
       </c>
       <c r="I80">
-        <v>1.404625961470361E-08</v>
+        <v>1.404625961470324E-08</v>
       </c>
       <c r="J80">
-        <v>8.163288302148047E-09</v>
+        <v>8.163288302147934E-09</v>
       </c>
       <c r="K80">
-        <v>0.0001184084940515158</v>
+        <v>0.0001184084940515171</v>
       </c>
       <c r="L80">
-        <v>0.04759804880151701</v>
+        <v>0.0475980488015174</v>
       </c>
       <c r="M80">
-        <v>397.458621657856</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.0475980488015174</v>
+      </c>
+      <c r="N80">
+        <v>397.4586216578588</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>186.909153276731</v>
+        <v>186.9091532767304</v>
       </c>
       <c r="B81">
-        <v>2918048.455978628</v>
+        <v>2918048.455978549</v>
       </c>
       <c r="C81">
-        <v>2741.424855005624</v>
+        <v>2741.424855005527</v>
       </c>
       <c r="D81">
-        <v>20460.56433438489</v>
+        <v>20460.56433438502</v>
       </c>
       <c r="E81">
-        <v>5644.418134197997</v>
+        <v>5644.418134198073</v>
       </c>
       <c r="F81">
-        <v>4722.608650070228</v>
+        <v>4722.608650070293</v>
       </c>
       <c r="G81">
         <v>5.571603952474643</v>
       </c>
       <c r="H81">
-        <v>50.71846770950433</v>
+        <v>50.71846770950322</v>
       </c>
       <c r="I81">
-        <v>1.524915244224157E-08</v>
+        <v>1.524915244224086E-08</v>
       </c>
       <c r="J81">
-        <v>8.44567865723358E-09</v>
+        <v>8.445678657233436E-09</v>
       </c>
       <c r="K81">
-        <v>0.000114953587437838</v>
+        <v>0.0001149535874378398</v>
       </c>
       <c r="L81">
-        <v>0.04657261073427223</v>
+        <v>0.04657261073427277</v>
       </c>
       <c r="M81">
-        <v>389.3235019168757</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.04657261073427277</v>
+      </c>
+      <c r="N81">
+        <v>389.3235019168805</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>188.3999073859944</v>
+        <v>188.3999073859937</v>
       </c>
       <c r="B82">
-        <v>3063123.393353418</v>
+        <v>3063123.39335336</v>
       </c>
       <c r="C82">
-        <v>2905.799859397103</v>
+        <v>2905.799859397041</v>
       </c>
       <c r="D82">
-        <v>20213.5842349659</v>
+        <v>20213.58423496603</v>
       </c>
       <c r="E82">
-        <v>5498.917516380851</v>
+        <v>5498.917516380917</v>
       </c>
       <c r="F82">
-        <v>4596.314166439584</v>
+        <v>4596.314166439644</v>
       </c>
       <c r="G82">
-        <v>5.538045572875124</v>
+        <v>5.538045572875119</v>
       </c>
       <c r="H82">
-        <v>52.80970924559269</v>
+        <v>52.80970924559147</v>
       </c>
       <c r="I82">
-        <v>1.661114897363671E-08</v>
+        <v>1.661114897363594E-08</v>
       </c>
       <c r="J82">
-        <v>8.741127240320713E-09</v>
+        <v>8.741127240320558E-09</v>
       </c>
       <c r="K82">
-        <v>0.0001115500029240088</v>
+        <v>0.0001115500029240106</v>
       </c>
       <c r="L82">
-        <v>0.04554753270669326</v>
+        <v>0.04554753270669382</v>
       </c>
       <c r="M82">
-        <v>381.0962420216121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.04554753270669382</v>
+      </c>
+      <c r="N82">
+        <v>381.0962420216167</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>189.8906614952578</v>
+        <v>189.8906614952571</v>
       </c>
       <c r="B83">
-        <v>3213419.642831559</v>
+        <v>3213419.642831462</v>
       </c>
       <c r="C83">
-        <v>3081.104995082484</v>
+        <v>3081.104995082351</v>
       </c>
       <c r="D83">
-        <v>19959.73788160785</v>
+        <v>19959.73788160795</v>
       </c>
       <c r="E83">
-        <v>5347.280687144954</v>
+        <v>5347.280687145059</v>
       </c>
       <c r="F83">
-        <v>4465.331874972731</v>
+        <v>4465.331874972817</v>
       </c>
       <c r="G83">
-        <v>5.507346687738456</v>
+        <v>5.507346687738498</v>
       </c>
       <c r="H83">
-        <v>55.10706442614887</v>
+        <v>55.10706442614807</v>
       </c>
       <c r="I83">
-        <v>1.816180788776049E-08</v>
+        <v>1.81618078877599E-08</v>
       </c>
       <c r="J83">
-        <v>9.050720217193801E-09</v>
+        <v>9.050720217193675E-09</v>
       </c>
       <c r="K83">
-        <v>0.0001081943268027616</v>
+        <v>0.0001081943268027629</v>
       </c>
       <c r="L83">
-        <v>0.0445242877061398</v>
+        <v>0.04452428770614018</v>
       </c>
       <c r="M83">
-        <v>372.7730039818193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.04452428770614018</v>
+      </c>
+      <c r="N83">
+        <v>372.7730039818219</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>191.3814156045212</v>
+        <v>191.3814156045205</v>
       </c>
       <c r="B84">
-        <v>3369077.91194263</v>
+        <v>3369077.911942528</v>
       </c>
       <c r="C84">
-        <v>3268.361094870598</v>
+        <v>3268.361094870456</v>
       </c>
       <c r="D84">
-        <v>19698.59274014354</v>
+        <v>19698.59274014367</v>
       </c>
       <c r="E84">
-        <v>5189.09650932549</v>
+        <v>5189.096509325603</v>
       </c>
       <c r="F84">
-        <v>4329.312215699168</v>
+        <v>4329.312215699259</v>
       </c>
       <c r="G84">
-        <v>5.479859759552421</v>
+        <v>5.479859759552427</v>
       </c>
       <c r="H84">
-        <v>57.64560700920338</v>
+        <v>57.64560700920229</v>
       </c>
       <c r="I84">
-        <v>1.993813984836604E-08</v>
+        <v>1.993813984836519E-08</v>
       </c>
       <c r="J84">
-        <v>9.375670599606806E-09</v>
+        <v>9.375670599606652E-09</v>
       </c>
       <c r="K84">
-        <v>0.0001048832353932696</v>
+        <v>0.0001048832353932711</v>
       </c>
       <c r="L84">
-        <v>0.04350444716831884</v>
+        <v>0.04350444716831932</v>
       </c>
       <c r="M84">
-        <v>364.3495375618231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.04350444716831932</v>
+      </c>
+      <c r="N84">
+        <v>364.3495375618271</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>192.8721697137846</v>
+        <v>192.8721697137839</v>
       </c>
       <c r="B85">
-        <v>3530241.897539109</v>
+        <v>3530241.897538983</v>
       </c>
       <c r="C85">
-        <v>3468.68766008289</v>
+        <v>3468.687660082698</v>
       </c>
       <c r="D85">
-        <v>19429.66371586733</v>
+        <v>19429.66371586743</v>
       </c>
       <c r="E85">
-        <v>5023.935833715276</v>
+        <v>5023.935833715399</v>
       </c>
       <c r="F85">
-        <v>4187.883561191969</v>
+        <v>4187.883561192063</v>
       </c>
       <c r="G85">
-        <v>5.455971327801658</v>
+        <v>5.455971327801663</v>
       </c>
       <c r="H85">
-        <v>60.46943939934611</v>
+        <v>60.46943939934514</v>
       </c>
       <c r="I85">
-        <v>2.198706397385361E-08</v>
+        <v>2.198706397385283E-08</v>
       </c>
       <c r="J85">
-        <v>9.717343383182279E-09</v>
+        <v>9.717343383182143E-09</v>
       </c>
       <c r="K85">
-        <v>0.0001016134763328349</v>
+        <v>0.0001016134763328361</v>
       </c>
       <c r="L85">
-        <v>0.04248962259645727</v>
+        <v>0.04248962259645765</v>
       </c>
       <c r="M85">
-        <v>355.8210885240672</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.04248962259645765</v>
+      </c>
+      <c r="N85">
+        <v>355.8210885240704</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>194.362923823048</v>
+        <v>194.3629238230473</v>
       </c>
       <c r="B86">
-        <v>3697056.46349419</v>
+        <v>3697056.463493998</v>
       </c>
       <c r="C86">
-        <v>3683.298116207265</v>
+        <v>3683.298116206931</v>
       </c>
       <c r="D86">
-        <v>19152.39969557056</v>
+        <v>19152.39969557067</v>
       </c>
       <c r="E86">
-        <v>4851.358225691745</v>
+        <v>4851.358225691933</v>
       </c>
       <c r="F86">
-        <v>4040.656481712037</v>
+        <v>4040.656481712177</v>
       </c>
       <c r="G86">
-        <v>5.436106405943578</v>
+        <v>5.436106405943629</v>
       </c>
       <c r="H86">
-        <v>63.63472808184171</v>
+        <v>63.63472808184094</v>
       </c>
       <c r="I86">
-        <v>2.436888791719173E-08</v>
+        <v>2.436888791719096E-08</v>
       </c>
       <c r="J86">
-        <v>1.007728859387428E-08</v>
+        <v>1.007728859387413E-08</v>
       </c>
       <c r="K86">
-        <v>9.838183103576651E-05</v>
+        <v>9.838183103576774E-05</v>
       </c>
       <c r="L86">
-        <v>0.04148139727671506</v>
+        <v>0.04148139727671544</v>
       </c>
       <c r="M86">
-        <v>347.18227717659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.04148139727671544</v>
+      </c>
+      <c r="N86">
+        <v>347.1822771765924</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>195.8536779323113</v>
+        <v>195.8536779323107</v>
       </c>
       <c r="B87">
-        <v>3869664.841037981</v>
+        <v>3869664.841037968</v>
       </c>
       <c r="C87">
-        <v>3913.487710304189</v>
+        <v>3913.487710304229</v>
       </c>
       <c r="D87">
-        <v>18866.16527531464</v>
+        <v>18866.16527531482</v>
       </c>
       <c r="E87">
-        <v>4670.920902691912</v>
+        <v>4670.920902691928</v>
       </c>
       <c r="F87">
-        <v>3887.230170382207</v>
+        <v>3887.230170382238</v>
       </c>
       <c r="G87">
-        <v>5.420734326193737</v>
+        <v>5.420734326193719</v>
       </c>
       <c r="H87">
-        <v>67.21402895415601</v>
+        <v>67.21402895415295</v>
       </c>
       <c r="I87">
-        <v>2.716234027704182E-08</v>
+        <v>2.716234027703961E-08</v>
       </c>
       <c r="J87">
-        <v>1.045728547001682E-08</v>
+        <v>1.045728547001658E-08</v>
       </c>
       <c r="K87">
-        <v>9.51850499970444E-05</v>
+        <v>9.518504999704646E-05</v>
       </c>
       <c r="L87">
-        <v>0.04048124741764572</v>
+        <v>0.04048124741764637</v>
       </c>
       <c r="M87">
-        <v>338.4269303231859</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.04048124741764637</v>
+      </c>
+      <c r="N87">
+        <v>338.4269303231923</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>197.3444320415747</v>
+        <v>197.344432041574</v>
       </c>
       <c r="B88">
-        <v>4048204.609355073</v>
+        <v>4048204.609355022</v>
       </c>
       <c r="C88">
-        <v>4160.613153709744</v>
+        <v>4160.613153709705</v>
       </c>
       <c r="D88">
-        <v>18570.21556808897</v>
+        <v>18570.21556808916</v>
       </c>
       <c r="E88">
-        <v>4482.188718362449</v>
+        <v>4482.188718362524</v>
       </c>
       <c r="F88">
-        <v>3727.200507538397</v>
+        <v>3727.200507538472</v>
       </c>
       <c r="G88">
-        <v>5.410376779678304</v>
+        <v>5.410376779678284</v>
       </c>
       <c r="H88">
-        <v>71.30259387168211</v>
+        <v>71.30259387167933</v>
       </c>
       <c r="I88">
-        <v>3.047201922352961E-08</v>
+        <v>3.047201922352724E-08</v>
       </c>
       <c r="J88">
-        <v>1.085940262147185E-08</v>
+        <v>1.085940262147161E-08</v>
       </c>
       <c r="K88">
-        <v>9.201974953972624E-05</v>
+        <v>9.201974953972826E-05</v>
       </c>
       <c r="L88">
-        <v>0.03949045133903415</v>
+        <v>0.03949045133903478</v>
       </c>
       <c r="M88">
-        <v>329.5478403770595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.03949045133903478</v>
+      </c>
+      <c r="N88">
+        <v>329.5478403770658</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>198.8351861508381</v>
+        <v>198.8351861508374</v>
       </c>
       <c r="B89">
-        <v>4232802.270384722</v>
+        <v>4232802.270384675</v>
       </c>
       <c r="C89">
-        <v>4426.065759565404</v>
+        <v>4426.065759565383</v>
       </c>
       <c r="D89">
-        <v>18263.66090034255</v>
+        <v>18263.66090034274</v>
       </c>
       <c r="E89">
-        <v>4284.742071675952</v>
+        <v>4284.742071676023</v>
       </c>
       <c r="F89">
-        <v>3560.167807909486</v>
+        <v>3560.167807909558</v>
       </c>
       <c r="G89">
-        <v>5.405619220796078</v>
+        <v>5.40561922079608</v>
       </c>
       <c r="H89">
-        <v>76.02781238530464</v>
+        <v>76.02781238530115</v>
       </c>
       <c r="I89">
-        <v>3.443971480520447E-08</v>
+        <v>3.443971480520161E-08</v>
       </c>
       <c r="J89">
-        <v>1.128608157698986E-08</v>
+        <v>1.128608157698959E-08</v>
       </c>
       <c r="K89">
-        <v>8.888225413713585E-05</v>
+        <v>8.88822541371378E-05</v>
       </c>
       <c r="L89">
-        <v>0.03850998404650637</v>
+        <v>0.03850998404650698</v>
       </c>
       <c r="M89">
-        <v>320.5364118591465</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.03850998404650698</v>
+      </c>
+      <c r="N89">
+        <v>320.5364118591523</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>200.3259402601015</v>
+        <v>200.3259402601008</v>
       </c>
       <c r="B90">
-        <v>4423566.388223487</v>
+        <v>4423566.388223391</v>
       </c>
       <c r="C90">
-        <v>4711.24522863334</v>
+        <v>4711.245228633192</v>
       </c>
       <c r="D90">
-        <v>17945.41647266112</v>
+        <v>17945.41647266131</v>
       </c>
       <c r="E90">
-        <v>4078.176459352665</v>
+        <v>4078.176459352774</v>
       </c>
       <c r="F90">
-        <v>3385.739808722433</v>
+        <v>3385.739808722525</v>
       </c>
       <c r="G90">
-        <v>5.407127467526557</v>
+        <v>5.407127467526585</v>
       </c>
       <c r="H90">
-        <v>81.5637852156961</v>
+        <v>81.56378521569242</v>
       </c>
       <c r="I90">
-        <v>3.926215489114603E-08</v>
+        <v>3.926215489114282E-08</v>
       </c>
       <c r="J90">
-        <v>1.174025532189507E-08</v>
+        <v>1.174025532189481E-08</v>
       </c>
       <c r="K90">
-        <v>8.57683616966801E-05</v>
+        <v>8.576836169668193E-05</v>
       </c>
       <c r="L90">
-        <v>0.03754039232601517</v>
+        <v>0.03754039232601572</v>
       </c>
       <c r="M90">
-        <v>311.3821359102185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.03754039232601572</v>
+      </c>
+      <c r="N90">
+        <v>311.3821359102238</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>201.8166943693649</v>
+        <v>201.8166943693641</v>
       </c>
       <c r="B91">
-        <v>4620579.556167948</v>
+        <v>4620579.556167809</v>
       </c>
       <c r="C91">
-        <v>5017.550242088639</v>
+        <v>5017.550242088373</v>
       </c>
       <c r="D91">
-        <v>17614.12920379039</v>
+        <v>17614.12920379057</v>
       </c>
       <c r="E91">
-        <v>3862.082998219796</v>
+        <v>3862.082998219967</v>
       </c>
       <c r="F91">
-        <v>3203.521770978205</v>
+        <v>3203.521770978346</v>
       </c>
       <c r="G91">
-        <v>5.415672388207128</v>
+        <v>5.41567238820712</v>
       </c>
       <c r="H91">
-        <v>88.15462788601866</v>
+        <v>88.15462788601499</v>
       </c>
       <c r="I91">
-        <v>4.521982588285049E-08</v>
+        <v>4.521982588284701E-08</v>
       </c>
       <c r="J91">
-        <v>1.222552047359886E-08</v>
+        <v>1.22255204735986E-08</v>
       </c>
       <c r="K91">
-        <v>8.267299846661956E-05</v>
+        <v>8.267299846662122E-05</v>
       </c>
       <c r="L91">
-        <v>0.03658164178135156</v>
+        <v>0.03658164178135208</v>
       </c>
       <c r="M91">
-        <v>302.0718045934581</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.03658164178135208</v>
+      </c>
+      <c r="N91">
+        <v>302.0718045934632</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>203.3074484786283</v>
+        <v>203.3074484786275</v>
       </c>
       <c r="B92">
-        <v>4823889.876628761</v>
+        <v>4823889.876628643</v>
       </c>
       <c r="C92">
-        <v>5346.414580848971</v>
+        <v>5346.414580848753</v>
       </c>
       <c r="D92">
-        <v>17268.06903613075</v>
+        <v>17268.06903613091</v>
       </c>
       <c r="E92">
-        <v>3635.994051179116</v>
+        <v>3635.994051179248</v>
       </c>
       <c r="F92">
-        <v>3013.080891528984</v>
+        <v>3013.080891529092</v>
       </c>
       <c r="G92">
-        <v>5.43216732093028</v>
+        <v>5.432167320930269</v>
       </c>
       <c r="H92">
-        <v>96.15330650377439</v>
+        <v>96.15330650377069</v>
       </c>
       <c r="I92">
-        <v>5.272577350230107E-08</v>
+        <v>5.272577350229731E-08</v>
       </c>
       <c r="J92">
-        <v>1.274639409737179E-08</v>
+        <v>1.274639409737153E-08</v>
       </c>
       <c r="K92">
-        <v>7.958971168179856E-05</v>
+        <v>7.958971168179997E-05</v>
       </c>
       <c r="L92">
-        <v>0.03563292074695656</v>
+        <v>0.035632920746957</v>
       </c>
       <c r="M92">
-        <v>292.588330735752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.035632920746957</v>
+      </c>
+      <c r="N92">
+        <v>292.5883307357566</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>204.7982025878917</v>
+        <v>204.7982025878909</v>
       </c>
       <c r="B93">
-        <v>5033503.104765437</v>
+        <v>5033503.104765295</v>
       </c>
       <c r="C93">
-        <v>5699.432445715273</v>
+        <v>5699.432445714971</v>
       </c>
       <c r="D93">
-        <v>16904.96288014354</v>
+        <v>16904.96288014366</v>
       </c>
       <c r="E93">
-        <v>3399.272671988358</v>
+        <v>3399.272671988516</v>
       </c>
       <c r="F93">
-        <v>2813.866996726876</v>
+        <v>2813.866996726998</v>
       </c>
       <c r="G93">
-        <v>5.457725965259935</v>
+        <v>5.457725965259945</v>
       </c>
       <c r="H93">
-        <v>106.0896125868905</v>
+        <v>106.0896125868892</v>
       </c>
       <c r="I93">
-        <v>6.241244284647463E-08</v>
+        <v>6.241244284647256E-08</v>
       </c>
       <c r="J93">
-        <v>1.33087090376881E-08</v>
+        <v>1.330870903768789E-08</v>
       </c>
       <c r="K93">
-        <v>7.650991302106895E-05</v>
+        <v>7.650991302106988E-05</v>
       </c>
       <c r="L93">
-        <v>0.03469237399234992</v>
+        <v>0.03469237399235024</v>
       </c>
       <c r="M93">
-        <v>282.9089564515676</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.03469237399235024</v>
+      </c>
+      <c r="N93">
+        <v>282.9089564515697</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>206.288956697155</v>
+        <v>206.2889566971543</v>
       </c>
       <c r="B94">
-        <v>5249376.927254502</v>
+        <v>5249376.927254269</v>
       </c>
       <c r="C94">
-        <v>6078.633814588201</v>
+        <v>6078.633814587512</v>
       </c>
       <c r="D94">
         <v>16521.73133486578</v>
       </c>
       <c r="E94">
-        <v>3150.917956609478</v>
+        <v>3150.917956609768</v>
       </c>
       <c r="F94">
-        <v>2605.065141680263</v>
+        <v>2605.065141680478</v>
       </c>
       <c r="G94">
-        <v>5.493754400838531</v>
+        <v>5.493754400838585</v>
       </c>
       <c r="H94">
-        <v>118.7964328973648</v>
+        <v>118.7964328973704</v>
       </c>
       <c r="I94">
-        <v>7.529581576636078E-08</v>
+        <v>7.529581576636463E-08</v>
       </c>
       <c r="J94">
-        <v>1.392024690408835E-08</v>
+        <v>1.39202469040883E-08</v>
       </c>
       <c r="K94">
-        <v>7.342171402300407E-05</v>
+        <v>7.342171402300397E-05</v>
       </c>
       <c r="L94">
-        <v>0.03375671540492461</v>
+        <v>0.03375671540492465</v>
       </c>
       <c r="M94">
-        <v>273.0024657765128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.03375671540492465</v>
+      </c>
+      <c r="N94">
+        <v>273.002465776511</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>207.7797108064185</v>
+        <v>207.7797108064177</v>
       </c>
       <c r="B95">
-        <v>5471418.79168859</v>
+        <v>5471418.791688445</v>
       </c>
       <c r="C95">
-        <v>6486.998208378238</v>
+        <v>6486.998208377888</v>
       </c>
       <c r="D95">
-        <v>16114.04958312247</v>
+        <v>16114.04958312265</v>
       </c>
       <c r="E95">
-        <v>2889.243806927893</v>
+        <v>2889.243806928088</v>
       </c>
       <c r="F95">
-        <v>2385.343325250712</v>
+        <v>2385.34332525087</v>
       </c>
       <c r="G95">
-        <v>5.542103277940601</v>
+        <v>5.542103277940589</v>
       </c>
       <c r="H95">
-        <v>135.6623397269224</v>
+        <v>135.6623397269158</v>
       </c>
       <c r="I95">
-        <v>9.310984625934219E-08</v>
+        <v>9.31098462593345E-08</v>
       </c>
       <c r="J95">
-        <v>1.459180470702555E-08</v>
+        <v>1.459180470702523E-08</v>
       </c>
       <c r="K95">
-        <v>7.030803598841736E-05</v>
+        <v>7.030803598841867E-05</v>
       </c>
       <c r="L95">
-        <v>0.03282061873775095</v>
+        <v>0.03282061873775137</v>
       </c>
       <c r="M95">
-        <v>262.8246426776996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.03282061873775137</v>
+      </c>
+      <c r="N95">
+        <v>262.8246426777035</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>209.2704649156818</v>
+        <v>209.2704649156811</v>
       </c>
       <c r="B96">
-        <v>5699488.141835015</v>
+        <v>5699488.141834759</v>
       </c>
       <c r="C96">
-        <v>6929.366974402346</v>
+        <v>6929.366974401457</v>
       </c>
       <c r="D96">
-        <v>15675.56276374188</v>
+        <v>15675.56276374189</v>
       </c>
       <c r="E96">
-        <v>2611.344669871008</v>
+        <v>2611.344669871343</v>
       </c>
       <c r="F96">
-        <v>2152.423231214641</v>
+        <v>2152.423231214892</v>
       </c>
       <c r="G96">
-        <v>5.605334840758556</v>
+        <v>5.605334840758634</v>
       </c>
       <c r="H96">
-        <v>159.1873732427864</v>
+        <v>159.1873732427942</v>
       </c>
       <c r="I96">
-        <v>1.190569595132127E-07</v>
+        <v>1.190569595132189E-07</v>
       </c>
       <c r="J96">
-        <v>1.533911860413684E-08</v>
+        <v>1.533911860413677E-08</v>
       </c>
       <c r="K96">
-        <v>6.714329902721056E-05</v>
+        <v>6.71432990272106E-05</v>
       </c>
       <c r="L96">
-        <v>0.03187567083527312</v>
+        <v>0.03187567083527319</v>
       </c>
       <c r="M96">
-        <v>252.3103125825098</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.03187567083527319</v>
+      </c>
+      <c r="N96">
+        <v>252.3103125825081</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>210.7612190249452</v>
+        <v>210.7612190249444</v>
       </c>
       <c r="B97">
-        <v>5933402.971230504</v>
+        <v>5933402.971230404</v>
       </c>
       <c r="C97">
-        <v>7414.136004662222</v>
+        <v>7414.136004662113</v>
       </c>
       <c r="D97">
-        <v>15196.3458222922</v>
+        <v>15196.34582229252</v>
       </c>
       <c r="E97">
-        <v>2312.127085561537</v>
+        <v>2312.127085561655</v>
       </c>
       <c r="F97">
-        <v>1902.293954682079</v>
+        <v>1902.293954682182</v>
       </c>
       <c r="G97">
-        <v>5.687233607755775</v>
+        <v>5.687233607755718</v>
       </c>
       <c r="H97">
-        <v>194.372697424825</v>
+        <v>194.3726974247957</v>
       </c>
       <c r="I97">
-        <v>1.597251008085383E-07</v>
+        <v>1.597251008085038E-07</v>
       </c>
       <c r="J97">
-        <v>1.618666925904298E-08</v>
+        <v>1.618666925904241E-08</v>
       </c>
       <c r="K97">
-        <v>6.388699456445307E-05</v>
+        <v>6.38869945644552E-05</v>
       </c>
       <c r="L97">
-        <v>0.03090837797413184</v>
+        <v>0.03090837797413246</v>
       </c>
       <c r="M97">
-        <v>241.3578992406286</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.03090837797413246</v>
+      </c>
+      <c r="N97">
+        <v>241.357899240636</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>212.2519731342086</v>
+        <v>212.2519731342078</v>
       </c>
       <c r="B98">
-        <v>6172949.644048187</v>
+        <v>6172949.644048007</v>
       </c>
       <c r="C98">
-        <v>7956.847110904322</v>
+        <v>7956.847110903654</v>
       </c>
       <c r="D98">
         <v>14659.45425831231</v>
       </c>
       <c r="E98">
-        <v>1982.250548332331</v>
+        <v>1982.250548332566</v>
       </c>
       <c r="F98">
-        <v>1627.53707609656</v>
+        <v>1627.537076096741</v>
       </c>
       <c r="G98">
-        <v>5.793914355262099</v>
+        <v>5.793914355262149</v>
       </c>
       <c r="H98">
-        <v>252.8902558825722</v>
+        <v>252.8902558825978</v>
       </c>
       <c r="I98">
-        <v>2.309780660002438E-07</v>
+        <v>2.309780660002681E-07</v>
       </c>
       <c r="J98">
-        <v>1.717625966755138E-08</v>
+        <v>1.717625966755131E-08</v>
       </c>
       <c r="K98">
-        <v>6.04693485210951E-05</v>
+        <v>6.046934852109505E-05</v>
       </c>
       <c r="L98">
-        <v>0.02989582934561547</v>
+        <v>0.02989582934561555</v>
       </c>
       <c r="M98">
-        <v>229.7949687590136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.02989582934561555</v>
+      </c>
+      <c r="N98">
+        <v>229.7949687590119</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>213.742727243472</v>
+        <v>213.7427272434712</v>
       </c>
       <c r="B99">
-        <v>6417894.3428579</v>
+        <v>6417894.342857396</v>
       </c>
       <c r="C99">
-        <v>8589.73087686472</v>
+        <v>8589.730876860747</v>
       </c>
       <c r="D99">
-        <v>14031.48505871201</v>
+        <v>14031.48505871036</v>
       </c>
       <c r="E99">
-        <v>1602.606372527389</v>
+        <v>1602.606372528273</v>
       </c>
       <c r="F99">
-        <v>1312.839797639023</v>
+        <v>1312.83979763964</v>
       </c>
       <c r="G99">
-        <v>5.936745028565021</v>
+        <v>5.936745028565868</v>
       </c>
       <c r="H99">
-        <v>369.7638443456154</v>
+        <v>369.7638443463262</v>
       </c>
       <c r="I99">
-        <v>3.821796106163647E-07</v>
+        <v>3.821796106172351E-07</v>
       </c>
       <c r="J99">
-        <v>1.839063411421277E-08</v>
+        <v>1.839063411421573E-08</v>
       </c>
       <c r="K99">
-        <v>5.675207966694219E-05</v>
+        <v>5.675207966693231E-05</v>
       </c>
       <c r="L99">
-        <v>0.02879419475654768</v>
+        <v>0.02879419475654532</v>
       </c>
       <c r="M99">
-        <v>217.2838451332797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.02879419475654532</v>
+      </c>
+      <c r="N99">
+        <v>217.2838451332378</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>215.2334813527354</v>
+        <v>215.2334813527346</v>
       </c>
       <c r="B100">
-        <v>6667994.462490313</v>
+        <v>6667994.462490761</v>
       </c>
       <c r="C100">
-        <v>9398.864782729288</v>
+        <v>9398.864782738938</v>
       </c>
       <c r="D100">
-        <v>13225.47254540952</v>
+        <v>13225.47254541631</v>
       </c>
       <c r="E100">
-        <v>1122.688000663328</v>
+        <v>1122.688000662117</v>
       </c>
       <c r="F100">
-        <v>917.419373044325</v>
+        <v>917.4193730435652</v>
       </c>
       <c r="G100">
-        <v>6.143348776871026</v>
+        <v>6.143348776868146</v>
       </c>
       <c r="H100">
-        <v>720.1167113480641</v>
+        <v>720.1167113405938</v>
       </c>
       <c r="I100">
-        <v>8.719203496651096E-07</v>
+        <v>8.719203496548529E-07</v>
       </c>
       <c r="J100">
-        <v>2.004697002183639E-08</v>
+        <v>2.004697002182268E-08</v>
       </c>
       <c r="K100">
-        <v>5.237377301381415E-05</v>
+        <v>5.237377301385039E-05</v>
       </c>
       <c r="L100">
-        <v>0.0274948591851521</v>
+        <v>0.0274948591851614</v>
       </c>
       <c r="M100">
-        <v>202.949407024772</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.0274948591851614</v>
+      </c>
+      <c r="N100">
+        <v>202.9494070249061</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>216.7242354619988</v>
+        <v>216.7242354619979</v>
       </c>
       <c r="B101">
-        <v>6923007.232870544</v>
+        <v>6923007.228475695</v>
       </c>
       <c r="C101">
-        <v>11351.35274947693</v>
+        <v>11352.02566157987</v>
       </c>
       <c r="D101">
-        <v>11357.36972728648</v>
+        <v>11356.72504197816</v>
       </c>
       <c r="E101">
-        <v>1.756633561555573</v>
+        <v>1.371965318675543</v>
       </c>
       <c r="F101">
-        <v>1.433525487276003</v>
+        <v>1.119612063895944</v>
       </c>
       <c r="G101">
-        <v>6.660586849510183</v>
+        <v>6.66075992702768</v>
       </c>
       <c r="H101">
-        <v>6606272.86185224</v>
+        <v>8499397.016340934</v>
       </c>
       <c r="I101">
-        <v>0.01146893140052034</v>
+        <v>0.01475732297042141</v>
       </c>
       <c r="J101">
-        <v>2.439623781591428E-08</v>
+        <v>2.439788544117314E-08</v>
       </c>
       <c r="K101">
-        <v>4.363190450453536E-05</v>
+        <v>4.362917891225206E-05</v>
       </c>
       <c r="L101">
-        <v>0.02495937693370282</v>
+        <v>0.02495862140388099</v>
       </c>
       <c r="M101">
-        <v>177.8600368084693</v>
+        <v>0.02495862140388099</v>
+      </c>
+      <c r="N101">
+        <v>177.8533617086388</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
